--- a/DB/Gr_pr.xlsx
+++ b/DB/Gr_pr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PyProj\subd\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\subd\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B70D048-7ED2-4DD8-8970-DB78F4872A92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19616F-120C-4104-A80F-9C89C46F515D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3785,13 +3785,13 @@
   <dimension ref="A1:L401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -3805,13 +3805,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>76</v>
@@ -3842,14 +3842,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>77</v>
-      </c>
-      <c r="E2">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
       <c r="G2">
         <v>700000</v>
@@ -3880,14 +3880,14 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>78</v>
-      </c>
-      <c r="E3">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
       </c>
       <c r="G3">
         <v>200000</v>
@@ -3918,14 +3918,14 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>79</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
       </c>
       <c r="G4">
         <v>700000</v>
@@ -3956,14 +3956,14 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>80</v>
-      </c>
-      <c r="E5">
-        <v>93</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
       </c>
       <c r="G5">
         <v>500000</v>
@@ -3994,14 +3994,14 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>80</v>
-      </c>
-      <c r="E6">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
       </c>
       <c r="G6">
         <v>500000</v>
@@ -4032,14 +4032,14 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>80</v>
-      </c>
-      <c r="E7">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
       </c>
       <c r="G7">
         <v>500000</v>
@@ -4070,14 +4070,14 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>81</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
       </c>
       <c r="G8">
         <v>400000</v>
@@ -4108,14 +4108,14 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>82</v>
-      </c>
-      <c r="E9">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
       </c>
       <c r="G9">
         <v>700000</v>
@@ -4146,14 +4146,14 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>82</v>
-      </c>
-      <c r="E10">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
       </c>
       <c r="G10">
         <v>500000</v>
@@ -4181,14 +4181,14 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>83</v>
-      </c>
-      <c r="E11">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
       <c r="G11">
         <v>500000</v>
@@ -4219,14 +4219,14 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>82</v>
-      </c>
-      <c r="E12">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
       </c>
       <c r="G12">
         <v>400000</v>
@@ -4257,14 +4257,14 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>81</v>
-      </c>
-      <c r="E13">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
       </c>
       <c r="G13">
         <v>600000</v>
@@ -4295,14 +4295,14 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
         <v>84</v>
-      </c>
-      <c r="E14">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
       </c>
       <c r="G14">
         <v>500000</v>
@@ -4333,14 +4333,14 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
         <v>85</v>
-      </c>
-      <c r="E15">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
       </c>
       <c r="G15">
         <v>700000</v>
@@ -4371,14 +4371,14 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>77</v>
-      </c>
-      <c r="E16">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
       </c>
       <c r="G16">
         <v>500000</v>
@@ -4409,14 +4409,14 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
         <v>77</v>
-      </c>
-      <c r="E17">
-        <v>93</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
       </c>
       <c r="G17">
         <v>500000</v>
@@ -4447,14 +4447,14 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
         <v>86</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
       </c>
       <c r="G18">
         <v>600000</v>
@@ -4485,14 +4485,14 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
         <v>86</v>
-      </c>
-      <c r="E19">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
       </c>
       <c r="G19">
         <v>500000</v>
@@ -4523,14 +4523,14 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>86</v>
-      </c>
-      <c r="E20">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
       </c>
       <c r="G20">
         <v>700000</v>
@@ -4561,14 +4561,14 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>87</v>
-      </c>
-      <c r="E21">
-        <v>92</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
       </c>
       <c r="G21">
         <v>700000</v>
@@ -4599,14 +4599,14 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>87</v>
-      </c>
-      <c r="E22">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
       </c>
       <c r="G22">
         <v>700000</v>
@@ -4637,14 +4637,14 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
         <v>87</v>
-      </c>
-      <c r="E23">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
       </c>
       <c r="G23">
         <v>500000</v>
@@ -4675,14 +4675,14 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>88</v>
-      </c>
-      <c r="E24">
-        <v>90</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
       </c>
       <c r="G24">
         <v>500000</v>
@@ -4713,14 +4713,14 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
         <v>89</v>
-      </c>
-      <c r="E25">
-        <v>71</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
       </c>
       <c r="G25">
         <v>500000</v>
@@ -4751,14 +4751,14 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
         <v>90</v>
-      </c>
-      <c r="E26">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
       </c>
       <c r="G26">
         <v>600000</v>
@@ -4789,14 +4789,14 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
         <v>89</v>
-      </c>
-      <c r="E27">
-        <v>96</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
       </c>
       <c r="G27">
         <v>500000</v>
@@ -4827,14 +4827,14 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
         <v>89</v>
-      </c>
-      <c r="E28">
-        <v>80</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
       </c>
       <c r="G28">
         <v>600000</v>
@@ -4865,14 +4865,14 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
         <v>90</v>
-      </c>
-      <c r="E29">
-        <v>80</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
       </c>
       <c r="G29">
         <v>500000</v>
@@ -4903,14 +4903,14 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
         <v>91</v>
-      </c>
-      <c r="E30">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
       </c>
       <c r="G30">
         <v>500000</v>
@@ -4941,14 +4941,14 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
         <v>92</v>
-      </c>
-      <c r="E31">
-        <v>60</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
       </c>
       <c r="G31">
         <v>400000</v>
@@ -4979,14 +4979,14 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
         <v>93</v>
-      </c>
-      <c r="E32">
-        <v>51</v>
-      </c>
-      <c r="F32" t="s">
-        <v>19</v>
       </c>
       <c r="G32">
         <v>400000</v>
@@ -5017,14 +5017,14 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
         <v>94</v>
-      </c>
-      <c r="E33">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>20</v>
       </c>
       <c r="G33">
         <v>600000</v>
@@ -5052,14 +5052,14 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
         <v>93</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
       </c>
       <c r="G34">
         <v>400000</v>
@@ -5090,14 +5090,14 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
         <v>95</v>
-      </c>
-      <c r="E35">
-        <v>21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
       </c>
       <c r="G35">
         <v>400000</v>
@@ -5128,14 +5128,14 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
         <v>96</v>
-      </c>
-      <c r="E36">
-        <v>38</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
       </c>
       <c r="G36">
         <v>400000</v>
@@ -5166,14 +5166,14 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
         <v>97</v>
-      </c>
-      <c r="E37">
-        <v>38</v>
-      </c>
-      <c r="F37" t="s">
-        <v>23</v>
       </c>
       <c r="G37">
         <v>600000</v>
@@ -5204,14 +5204,14 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
         <v>97</v>
-      </c>
-      <c r="E38">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
       </c>
       <c r="G38">
         <v>600000</v>
@@ -5242,14 +5242,14 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
         <v>98</v>
-      </c>
-      <c r="E39">
-        <v>74</v>
-      </c>
-      <c r="F39" t="s">
-        <v>24</v>
       </c>
       <c r="G39">
         <v>400000</v>
@@ -5280,14 +5280,14 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
         <v>99</v>
-      </c>
-      <c r="E40">
-        <v>71</v>
-      </c>
-      <c r="F40" t="s">
-        <v>17</v>
       </c>
       <c r="G40">
         <v>400000</v>
@@ -5318,14 +5318,14 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>100</v>
-      </c>
-      <c r="E41">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>7</v>
       </c>
       <c r="G41">
         <v>400000</v>
@@ -5356,14 +5356,14 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
         <v>101</v>
-      </c>
-      <c r="E42">
-        <v>92</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
       </c>
       <c r="G42">
         <v>500000</v>
@@ -5394,14 +5394,14 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
         <v>101</v>
-      </c>
-      <c r="E43">
-        <v>100</v>
-      </c>
-      <c r="F43" t="s">
-        <v>25</v>
       </c>
       <c r="G43">
         <v>600000</v>
@@ -5432,14 +5432,14 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
         <v>101</v>
-      </c>
-      <c r="E44">
-        <v>92</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
       </c>
       <c r="G44">
         <v>600000</v>
@@ -5470,14 +5470,14 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>102</v>
-      </c>
-      <c r="E45">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>7</v>
       </c>
       <c r="G45">
         <v>500000</v>
@@ -5508,14 +5508,14 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
         <v>103</v>
-      </c>
-      <c r="E46">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
       </c>
       <c r="G46">
         <v>700000</v>
@@ -5546,14 +5546,14 @@
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
         <v>104</v>
-      </c>
-      <c r="E47">
-        <v>90</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
       </c>
       <c r="G47">
         <v>180000</v>
@@ -5584,14 +5584,14 @@
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
         <v>105</v>
-      </c>
-      <c r="E48">
-        <v>53</v>
-      </c>
-      <c r="F48" t="s">
-        <v>5</v>
       </c>
       <c r="G48">
         <v>160000</v>
@@ -5622,14 +5622,14 @@
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
         <v>106</v>
-      </c>
-      <c r="E49">
-        <v>92</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
       </c>
       <c r="G49">
         <v>300000</v>
@@ -5654,14 +5654,14 @@
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
         <v>107</v>
-      </c>
-      <c r="E50">
-        <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>27</v>
       </c>
       <c r="G50">
         <v>400000</v>
@@ -5692,14 +5692,14 @@
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
         <v>108</v>
-      </c>
-      <c r="E51">
-        <v>90</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
       </c>
       <c r="G51">
         <v>160000</v>
@@ -5730,14 +5730,14 @@
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <v>78</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
         <v>108</v>
-      </c>
-      <c r="E52">
-        <v>78</v>
-      </c>
-      <c r="F52" t="s">
-        <v>28</v>
       </c>
       <c r="G52">
         <v>280000</v>
@@ -5768,14 +5768,14 @@
       <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
         <v>109</v>
-      </c>
-      <c r="E53">
-        <v>93</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
       </c>
       <c r="G53">
         <v>360000</v>
@@ -5806,14 +5806,14 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <v>71</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
         <v>110</v>
-      </c>
-      <c r="E54">
-        <v>71</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
       </c>
       <c r="G54">
         <v>500000</v>
@@ -5844,14 +5844,14 @@
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <v>71</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
         <v>111</v>
-      </c>
-      <c r="E55">
-        <v>71</v>
-      </c>
-      <c r="F55" t="s">
-        <v>17</v>
       </c>
       <c r="G55">
         <v>300000</v>
@@ -5882,14 +5882,14 @@
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56">
+        <v>96</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
         <v>104</v>
-      </c>
-      <c r="E56">
-        <v>96</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
       </c>
       <c r="G56">
         <v>400000</v>
@@ -5920,14 +5920,14 @@
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
         <v>112</v>
-      </c>
-      <c r="E57">
-        <v>12</v>
-      </c>
-      <c r="F57" t="s">
-        <v>29</v>
       </c>
       <c r="G57">
         <v>600000</v>
@@ -5955,14 +5955,14 @@
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58">
+        <v>93</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="E58">
-        <v>93</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
       </c>
       <c r="G58">
         <v>320000</v>
@@ -5987,14 +5987,14 @@
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59">
+        <v>97</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
         <v>114</v>
-      </c>
-      <c r="E59">
-        <v>97</v>
-      </c>
-      <c r="F59" t="s">
-        <v>27</v>
       </c>
       <c r="G59">
         <v>560000</v>
@@ -6025,14 +6025,14 @@
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60">
+        <v>79</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="E60">
-        <v>79</v>
-      </c>
-      <c r="F60" t="s">
-        <v>30</v>
       </c>
       <c r="G60">
         <v>300000</v>
@@ -6057,14 +6057,14 @@
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
         <v>113</v>
-      </c>
-      <c r="E61">
-        <v>21</v>
-      </c>
-      <c r="F61" t="s">
-        <v>22</v>
       </c>
       <c r="G61">
         <v>280000</v>
@@ -6089,14 +6089,14 @@
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
         <v>116</v>
-      </c>
-      <c r="E62">
-        <v>18</v>
-      </c>
-      <c r="F62" t="s">
-        <v>20</v>
       </c>
       <c r="G62">
         <v>420000</v>
@@ -6127,14 +6127,14 @@
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="E63">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>7</v>
       </c>
       <c r="G63">
         <v>360000</v>
@@ -6156,14 +6156,14 @@
       <c r="C64">
         <v>2</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
         <v>117</v>
-      </c>
-      <c r="E64">
-        <v>11</v>
-      </c>
-      <c r="F64" t="s">
-        <v>31</v>
       </c>
       <c r="G64">
         <v>300000</v>
@@ -6191,14 +6191,14 @@
       <c r="C65">
         <v>2</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
         <v>117</v>
-      </c>
-      <c r="E65">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>31</v>
       </c>
       <c r="G65">
         <v>320000</v>
@@ -6229,14 +6229,14 @@
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66">
+        <v>93</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
         <v>117</v>
-      </c>
-      <c r="E66">
-        <v>93</v>
-      </c>
-      <c r="F66" t="s">
-        <v>8</v>
       </c>
       <c r="G66">
         <v>320000</v>
@@ -6264,14 +6264,14 @@
       <c r="C67">
         <v>3</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
         <v>118</v>
-      </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>32</v>
       </c>
       <c r="G67">
         <v>350000</v>
@@ -6302,14 +6302,14 @@
       <c r="C68">
         <v>3</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>118</v>
-      </c>
-      <c r="E68">
-        <v>13</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
       </c>
       <c r="G68">
         <v>400000</v>
@@ -6340,14 +6340,14 @@
       <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69">
+        <v>93</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
         <v>119</v>
-      </c>
-      <c r="E69">
-        <v>93</v>
-      </c>
-      <c r="F69" t="s">
-        <v>8</v>
       </c>
       <c r="G69">
         <v>400000</v>
@@ -6375,14 +6375,14 @@
       <c r="C70">
         <v>3</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70">
+        <v>38</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" t="s">
         <v>118</v>
-      </c>
-      <c r="E70">
-        <v>38</v>
-      </c>
-      <c r="F70" t="s">
-        <v>23</v>
       </c>
       <c r="G70">
         <v>400000</v>
@@ -6413,14 +6413,14 @@
       <c r="C71">
         <v>3</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71">
+        <v>51</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
         <v>119</v>
-      </c>
-      <c r="E71">
-        <v>51</v>
-      </c>
-      <c r="F71" t="s">
-        <v>19</v>
       </c>
       <c r="G71">
         <v>600000</v>
@@ -6451,14 +6451,14 @@
       <c r="C72">
         <v>3</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
         <v>120</v>
-      </c>
-      <c r="E72">
-        <v>70</v>
-      </c>
-      <c r="F72" t="s">
-        <v>13</v>
       </c>
       <c r="G72">
         <v>500000</v>
@@ -6489,14 +6489,14 @@
       <c r="C73">
         <v>3</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
         <v>121</v>
-      </c>
-      <c r="E73">
-        <v>36</v>
-      </c>
-      <c r="F73" t="s">
-        <v>33</v>
       </c>
       <c r="G73">
         <v>500000</v>
@@ -6527,14 +6527,14 @@
       <c r="C74">
         <v>3</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74">
+        <v>38</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="s">
         <v>122</v>
-      </c>
-      <c r="E74">
-        <v>38</v>
-      </c>
-      <c r="F74" t="s">
-        <v>23</v>
       </c>
       <c r="G74">
         <v>700000</v>
@@ -6565,14 +6565,14 @@
       <c r="C75">
         <v>3</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75">
+        <v>51</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
         <v>123</v>
-      </c>
-      <c r="E75">
-        <v>51</v>
-      </c>
-      <c r="F75" t="s">
-        <v>19</v>
       </c>
       <c r="G75">
         <v>500000</v>
@@ -6603,14 +6603,14 @@
       <c r="C76">
         <v>3</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76">
+        <v>72</v>
+      </c>
+      <c r="E76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="s">
         <v>124</v>
-      </c>
-      <c r="E76">
-        <v>72</v>
-      </c>
-      <c r="F76" t="s">
-        <v>34</v>
       </c>
       <c r="G76">
         <v>700000</v>
@@ -6641,14 +6641,14 @@
       <c r="C77">
         <v>4</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77">
+        <v>68</v>
+      </c>
+      <c r="E77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" t="s">
         <v>125</v>
-      </c>
-      <c r="E77">
-        <v>68</v>
-      </c>
-      <c r="F77" t="s">
-        <v>35</v>
       </c>
       <c r="G77">
         <v>700000</v>
@@ -6670,14 +6670,14 @@
       <c r="C78">
         <v>4</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
         <v>126</v>
-      </c>
-      <c r="E78">
-        <v>55</v>
-      </c>
-      <c r="F78" t="s">
-        <v>16</v>
       </c>
       <c r="G78">
         <v>400000</v>
@@ -6699,14 +6699,14 @@
       <c r="C79">
         <v>4</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79">
+        <v>60</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
         <v>126</v>
-      </c>
-      <c r="E79">
-        <v>60</v>
-      </c>
-      <c r="F79" t="s">
-        <v>15</v>
       </c>
       <c r="G79">
         <v>700000</v>
@@ -6728,14 +6728,14 @@
       <c r="C80">
         <v>4</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80">
+        <v>88</v>
+      </c>
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
         <v>127</v>
-      </c>
-      <c r="E80">
-        <v>88</v>
-      </c>
-      <c r="F80" t="s">
-        <v>36</v>
       </c>
       <c r="G80">
         <v>600000</v>
@@ -6757,14 +6757,14 @@
       <c r="C81">
         <v>4</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81">
+        <v>57</v>
+      </c>
+      <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
         <v>127</v>
-      </c>
-      <c r="E81">
-        <v>57</v>
-      </c>
-      <c r="F81" t="s">
-        <v>37</v>
       </c>
       <c r="G81">
         <v>500000</v>
@@ -6786,14 +6786,14 @@
       <c r="C82">
         <v>4</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
         <v>127</v>
-      </c>
-      <c r="E82">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>38</v>
       </c>
       <c r="G82">
         <v>700000</v>
@@ -6815,14 +6815,14 @@
       <c r="C83">
         <v>4</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
         <v>128</v>
-      </c>
-      <c r="E83">
-        <v>18</v>
-      </c>
-      <c r="F83" t="s">
-        <v>20</v>
       </c>
       <c r="G83">
         <v>600000</v>
@@ -6853,14 +6853,14 @@
       <c r="C84">
         <v>4</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84">
+        <v>71</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s">
         <v>129</v>
-      </c>
-      <c r="E84">
-        <v>71</v>
-      </c>
-      <c r="F84" t="s">
-        <v>17</v>
       </c>
       <c r="G84">
         <v>500000</v>
@@ -6891,14 +6891,14 @@
       <c r="C85">
         <v>4</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
         <v>130</v>
-      </c>
-      <c r="E85">
-        <v>100</v>
-      </c>
-      <c r="F85" t="s">
-        <v>25</v>
       </c>
       <c r="G85">
         <v>600000</v>
@@ -6929,14 +6929,14 @@
       <c r="C86">
         <v>4</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86">
+        <v>36</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
         <v>131</v>
-      </c>
-      <c r="E86">
-        <v>36</v>
-      </c>
-      <c r="F86" t="s">
-        <v>33</v>
       </c>
       <c r="G86">
         <v>600000</v>
@@ -6967,14 +6967,14 @@
       <c r="C87">
         <v>4</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87">
+        <v>93</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
         <v>132</v>
-      </c>
-      <c r="E87">
-        <v>93</v>
-      </c>
-      <c r="F87" t="s">
-        <v>8</v>
       </c>
       <c r="G87">
         <v>700000</v>
@@ -7005,14 +7005,14 @@
       <c r="C88">
         <v>4</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88">
+        <v>69</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" t="s">
         <v>133</v>
-      </c>
-      <c r="E88">
-        <v>69</v>
-      </c>
-      <c r="F88" t="s">
-        <v>39</v>
       </c>
       <c r="G88">
         <v>500000</v>
@@ -7043,14 +7043,14 @@
       <c r="C89">
         <v>4</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89">
+        <v>53</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
         <v>134</v>
-      </c>
-      <c r="E89">
-        <v>53</v>
-      </c>
-      <c r="F89" t="s">
-        <v>5</v>
       </c>
       <c r="G89">
         <v>700000</v>
@@ -7081,14 +7081,14 @@
       <c r="C90">
         <v>4</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90">
+        <v>100</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
         <v>135</v>
-      </c>
-      <c r="E90">
-        <v>100</v>
-      </c>
-      <c r="F90" t="s">
-        <v>25</v>
       </c>
       <c r="G90">
         <v>700000</v>
@@ -7119,14 +7119,14 @@
       <c r="C91">
         <v>4</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91">
+        <v>73</v>
+      </c>
+      <c r="E91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" t="s">
         <v>136</v>
-      </c>
-      <c r="E91">
-        <v>73</v>
-      </c>
-      <c r="F91" t="s">
-        <v>40</v>
       </c>
       <c r="G91">
         <v>500000</v>
@@ -7157,14 +7157,14 @@
       <c r="C92">
         <v>4</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92">
+        <v>55</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
         <v>131</v>
-      </c>
-      <c r="E92">
-        <v>55</v>
-      </c>
-      <c r="F92" t="s">
-        <v>16</v>
       </c>
       <c r="G92">
         <v>400000</v>
@@ -7195,14 +7195,14 @@
       <c r="C93">
         <v>4</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" t="s">
         <v>128</v>
-      </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s">
-        <v>21</v>
       </c>
       <c r="G93">
         <v>600000</v>
@@ -7233,14 +7233,14 @@
       <c r="C94">
         <v>4</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94">
+        <v>78</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
         <v>128</v>
-      </c>
-      <c r="E94">
-        <v>78</v>
-      </c>
-      <c r="F94" t="s">
-        <v>28</v>
       </c>
       <c r="G94">
         <v>700000</v>
@@ -7268,14 +7268,14 @@
       <c r="C95">
         <v>4</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
         <v>137</v>
-      </c>
-      <c r="E95">
-        <v>93</v>
-      </c>
-      <c r="F95" t="s">
-        <v>8</v>
       </c>
       <c r="G95">
         <v>600000</v>
@@ -7306,14 +7306,14 @@
       <c r="C96">
         <v>4</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96">
+        <v>51</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
         <v>138</v>
-      </c>
-      <c r="E96">
-        <v>51</v>
-      </c>
-      <c r="F96" t="s">
-        <v>19</v>
       </c>
       <c r="G96">
         <v>400000</v>
@@ -7344,14 +7344,14 @@
       <c r="C97">
         <v>4</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
         <v>139</v>
-      </c>
-      <c r="E97">
-        <v>93</v>
-      </c>
-      <c r="F97" t="s">
-        <v>8</v>
       </c>
       <c r="G97">
         <v>700000</v>
@@ -7382,14 +7382,14 @@
       <c r="C98">
         <v>4</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98">
+        <v>93</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
         <v>140</v>
-      </c>
-      <c r="E98">
-        <v>93</v>
-      </c>
-      <c r="F98" t="s">
-        <v>8</v>
       </c>
       <c r="G98">
         <v>700000</v>
@@ -7420,14 +7420,14 @@
       <c r="C99">
         <v>4</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99">
+        <v>53</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
         <v>141</v>
-      </c>
-      <c r="E99">
-        <v>53</v>
-      </c>
-      <c r="F99" t="s">
-        <v>5</v>
       </c>
       <c r="G99">
         <v>600000</v>
@@ -7458,14 +7458,14 @@
       <c r="C100">
         <v>4</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100">
+        <v>92</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
         <v>142</v>
-      </c>
-      <c r="E100">
-        <v>92</v>
-      </c>
-      <c r="F100" t="s">
-        <v>11</v>
       </c>
       <c r="G100">
         <v>700000</v>
@@ -7496,14 +7496,14 @@
       <c r="C101">
         <v>4</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101">
+        <v>71</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
         <v>143</v>
-      </c>
-      <c r="E101">
-        <v>71</v>
-      </c>
-      <c r="F101" t="s">
-        <v>17</v>
       </c>
       <c r="G101">
         <v>400000</v>
@@ -7534,14 +7534,14 @@
       <c r="C102">
         <v>5</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102">
+        <v>90</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
         <v>144</v>
-      </c>
-      <c r="E102">
-        <v>90</v>
-      </c>
-      <c r="F102" t="s">
-        <v>9</v>
       </c>
       <c r="G102">
         <v>400000</v>
@@ -7572,14 +7572,14 @@
       <c r="C103">
         <v>5</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103">
+        <v>80</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
         <v>145</v>
-      </c>
-      <c r="E103">
-        <v>80</v>
-      </c>
-      <c r="F103" t="s">
-        <v>18</v>
       </c>
       <c r="G103">
         <v>600000</v>
@@ -7610,14 +7610,14 @@
       <c r="C104">
         <v>5</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104">
+        <v>93</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
         <v>146</v>
-      </c>
-      <c r="E104">
-        <v>93</v>
-      </c>
-      <c r="F104" t="s">
-        <v>8</v>
       </c>
       <c r="G104">
         <v>400000</v>
@@ -7648,14 +7648,14 @@
       <c r="C105">
         <v>5</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105">
+        <v>35</v>
+      </c>
+      <c r="E105" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" t="s">
         <v>147</v>
-      </c>
-      <c r="E105">
-        <v>35</v>
-      </c>
-      <c r="F105" t="s">
-        <v>41</v>
       </c>
       <c r="G105">
         <v>400000</v>
@@ -7686,14 +7686,14 @@
       <c r="C106">
         <v>5</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106">
+        <v>92</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
         <v>148</v>
-      </c>
-      <c r="E106">
-        <v>92</v>
-      </c>
-      <c r="F106" t="s">
-        <v>11</v>
       </c>
       <c r="G106">
         <v>400000</v>
@@ -7724,14 +7724,14 @@
       <c r="C107">
         <v>5</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107">
+        <v>92</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
         <v>148</v>
-      </c>
-      <c r="E107">
-        <v>92</v>
-      </c>
-      <c r="F107" t="s">
-        <v>11</v>
       </c>
       <c r="G107">
         <v>500000</v>
@@ -7762,14 +7762,14 @@
       <c r="C108">
         <v>6</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" t="s">
         <v>149</v>
-      </c>
-      <c r="E108">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>29</v>
       </c>
       <c r="G108">
         <v>300000</v>
@@ -7800,14 +7800,14 @@
       <c r="C109">
         <v>6</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109">
+        <v>53</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
         <v>150</v>
-      </c>
-      <c r="E109">
-        <v>53</v>
-      </c>
-      <c r="F109" t="s">
-        <v>5</v>
       </c>
       <c r="G109">
         <v>700000</v>
@@ -7838,14 +7838,14 @@
       <c r="C110">
         <v>6</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110">
+        <v>51</v>
+      </c>
+      <c r="E110" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" t="s">
         <v>151</v>
-      </c>
-      <c r="E110">
-        <v>51</v>
-      </c>
-      <c r="F110" t="s">
-        <v>19</v>
       </c>
       <c r="G110">
         <v>600000</v>
@@ -7876,14 +7876,14 @@
       <c r="C111">
         <v>6</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111">
+        <v>76</v>
+      </c>
+      <c r="E111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111" t="s">
         <v>152</v>
-      </c>
-      <c r="E111">
-        <v>76</v>
-      </c>
-      <c r="F111" t="s">
-        <v>42</v>
       </c>
       <c r="G111">
         <v>600000</v>
@@ -7914,14 +7914,14 @@
       <c r="C112">
         <v>6</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112">
+        <v>76</v>
+      </c>
+      <c r="E112" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s">
         <v>153</v>
-      </c>
-      <c r="E112">
-        <v>76</v>
-      </c>
-      <c r="F112" t="s">
-        <v>42</v>
       </c>
       <c r="G112">
         <v>400000</v>
@@ -7952,14 +7952,14 @@
       <c r="C113">
         <v>6</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113">
+        <v>96</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
         <v>154</v>
-      </c>
-      <c r="E113">
-        <v>96</v>
-      </c>
-      <c r="F113" t="s">
-        <v>12</v>
       </c>
       <c r="G113">
         <v>700000</v>
@@ -7990,14 +7990,14 @@
       <c r="C114">
         <v>6</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114">
+        <v>38</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" t="s">
         <v>153</v>
-      </c>
-      <c r="E114">
-        <v>38</v>
-      </c>
-      <c r="F114" t="s">
-        <v>23</v>
       </c>
       <c r="G114">
         <v>500000</v>
@@ -8028,14 +8028,14 @@
       <c r="C115">
         <v>6</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115">
+        <v>97</v>
+      </c>
+      <c r="E115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115" t="s">
         <v>155</v>
-      </c>
-      <c r="E115">
-        <v>97</v>
-      </c>
-      <c r="F115" t="s">
-        <v>27</v>
       </c>
       <c r="G115">
         <v>500000</v>
@@ -8066,14 +8066,14 @@
       <c r="C116">
         <v>6</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116">
+        <v>80</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
         <v>156</v>
-      </c>
-      <c r="E116">
-        <v>80</v>
-      </c>
-      <c r="F116" t="s">
-        <v>18</v>
       </c>
       <c r="G116">
         <v>600000</v>
@@ -8104,14 +8104,14 @@
       <c r="C117">
         <v>6</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117">
+        <v>40</v>
+      </c>
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s">
         <v>157</v>
-      </c>
-      <c r="E117">
-        <v>40</v>
-      </c>
-      <c r="F117" t="s">
-        <v>43</v>
       </c>
       <c r="G117">
         <v>400000</v>
@@ -8142,14 +8142,14 @@
       <c r="C118">
         <v>6</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118">
+        <v>60</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
         <v>158</v>
-      </c>
-      <c r="E118">
-        <v>60</v>
-      </c>
-      <c r="F118" t="s">
-        <v>15</v>
       </c>
       <c r="G118">
         <v>400000</v>
@@ -8180,14 +8180,14 @@
       <c r="C119">
         <v>6</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119">
+        <v>57</v>
+      </c>
+      <c r="E119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" t="s">
         <v>159</v>
-      </c>
-      <c r="E119">
-        <v>57</v>
-      </c>
-      <c r="F119" t="s">
-        <v>37</v>
       </c>
       <c r="G119">
         <v>400000</v>
@@ -8218,14 +8218,14 @@
       <c r="C120">
         <v>6</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120">
+        <v>74</v>
+      </c>
+      <c r="E120" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" t="s">
         <v>159</v>
-      </c>
-      <c r="E120">
-        <v>74</v>
-      </c>
-      <c r="F120" t="s">
-        <v>24</v>
       </c>
       <c r="G120">
         <v>700000</v>
@@ -8256,14 +8256,14 @@
       <c r="C121">
         <v>6</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121">
+        <v>16</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
         <v>159</v>
-      </c>
-      <c r="E121">
-        <v>16</v>
-      </c>
-      <c r="F121" t="s">
-        <v>44</v>
       </c>
       <c r="G121">
         <v>500000</v>
@@ -8294,14 +8294,14 @@
       <c r="C122">
         <v>6</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122">
+        <v>35</v>
+      </c>
+      <c r="E122" t="s">
+        <v>41</v>
+      </c>
+      <c r="F122" t="s">
         <v>158</v>
-      </c>
-      <c r="E122">
-        <v>35</v>
-      </c>
-      <c r="F122" t="s">
-        <v>41</v>
       </c>
       <c r="G122">
         <v>400000</v>
@@ -8332,14 +8332,14 @@
       <c r="C123">
         <v>6</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123">
+        <v>53</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
         <v>160</v>
-      </c>
-      <c r="E123">
-        <v>53</v>
-      </c>
-      <c r="F123" t="s">
-        <v>5</v>
       </c>
       <c r="G123">
         <v>600000</v>
@@ -8370,14 +8370,14 @@
       <c r="C124">
         <v>6</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124">
+        <v>33</v>
+      </c>
+      <c r="E124" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" t="s">
         <v>161</v>
-      </c>
-      <c r="E124">
-        <v>33</v>
-      </c>
-      <c r="F124" t="s">
-        <v>45</v>
       </c>
       <c r="G124">
         <v>600000</v>
@@ -8408,14 +8408,14 @@
       <c r="C125">
         <v>7</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125">
+        <v>71</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" t="s">
         <v>162</v>
-      </c>
-      <c r="E125">
-        <v>71</v>
-      </c>
-      <c r="F125" t="s">
-        <v>17</v>
       </c>
       <c r="G125">
         <v>200000</v>
@@ -8446,14 +8446,14 @@
       <c r="C126">
         <v>7</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" t="s">
         <v>163</v>
-      </c>
-      <c r="E126">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>32</v>
       </c>
       <c r="G126">
         <v>240000</v>
@@ -8484,14 +8484,14 @@
       <c r="C127">
         <v>7</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127">
+        <v>18</v>
+      </c>
+      <c r="E127" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" t="s">
         <v>164</v>
-      </c>
-      <c r="E127">
-        <v>18</v>
-      </c>
-      <c r="F127" t="s">
-        <v>20</v>
       </c>
       <c r="G127">
         <v>700000</v>
@@ -8522,14 +8522,14 @@
       <c r="C128">
         <v>7</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" t="s">
         <v>165</v>
-      </c>
-      <c r="E128">
-        <v>6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>32</v>
       </c>
       <c r="G128">
         <v>320000</v>
@@ -8560,14 +8560,14 @@
       <c r="C129">
         <v>7</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129">
+        <v>40</v>
+      </c>
+      <c r="E129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s">
         <v>166</v>
-      </c>
-      <c r="E129">
-        <v>40</v>
-      </c>
-      <c r="F129" t="s">
-        <v>43</v>
       </c>
       <c r="G129">
         <v>320000</v>
@@ -8598,14 +8598,14 @@
       <c r="C130">
         <v>7</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130">
+        <v>17</v>
+      </c>
+      <c r="E130" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" t="s">
         <v>167</v>
-      </c>
-      <c r="E130">
-        <v>17</v>
-      </c>
-      <c r="F130" t="s">
-        <v>46</v>
       </c>
       <c r="G130">
         <v>500000</v>
@@ -8636,14 +8636,14 @@
       <c r="C131">
         <v>7</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131">
+        <v>53</v>
+      </c>
+      <c r="E131" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" t="s">
         <v>168</v>
-      </c>
-      <c r="E131">
-        <v>53</v>
-      </c>
-      <c r="F131" t="s">
-        <v>5</v>
       </c>
       <c r="G131">
         <v>400000</v>
@@ -8671,14 +8671,14 @@
       <c r="C132">
         <v>7</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132">
+        <v>90</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
         <v>169</v>
-      </c>
-      <c r="E132">
-        <v>90</v>
-      </c>
-      <c r="F132" t="s">
-        <v>9</v>
       </c>
       <c r="G132">
         <v>400000</v>
@@ -8709,14 +8709,14 @@
       <c r="C133">
         <v>7</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133">
+        <v>67</v>
+      </c>
+      <c r="E133" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" t="s">
         <v>170</v>
-      </c>
-      <c r="E133">
-        <v>67</v>
-      </c>
-      <c r="F133" t="s">
-        <v>47</v>
       </c>
       <c r="G133">
         <v>500000</v>
@@ -8747,14 +8747,14 @@
       <c r="C134">
         <v>7</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
         <v>171</v>
-      </c>
-      <c r="E134">
-        <v>13</v>
-      </c>
-      <c r="F134" t="s">
-        <v>7</v>
       </c>
       <c r="G134">
         <v>600000</v>
@@ -8785,14 +8785,14 @@
       <c r="C135">
         <v>7</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135">
+        <v>92</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
         <v>172</v>
-      </c>
-      <c r="E135">
-        <v>92</v>
-      </c>
-      <c r="F135" t="s">
-        <v>11</v>
       </c>
       <c r="G135">
         <v>700000</v>
@@ -8823,14 +8823,14 @@
       <c r="C136">
         <v>7</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136">
+        <v>97</v>
+      </c>
+      <c r="E136" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" t="s">
         <v>173</v>
-      </c>
-      <c r="E136">
-        <v>97</v>
-      </c>
-      <c r="F136" t="s">
-        <v>27</v>
       </c>
       <c r="G136">
         <v>500000</v>
@@ -8861,14 +8861,14 @@
       <c r="C137">
         <v>7</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137">
+        <v>71</v>
+      </c>
+      <c r="E137" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" t="s">
         <v>174</v>
-      </c>
-      <c r="E137">
-        <v>71</v>
-      </c>
-      <c r="F137" t="s">
-        <v>17</v>
       </c>
       <c r="G137">
         <v>500000</v>
@@ -8899,14 +8899,14 @@
       <c r="C138">
         <v>7</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138">
+        <v>92</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
         <v>175</v>
-      </c>
-      <c r="E138">
-        <v>92</v>
-      </c>
-      <c r="F138" t="s">
-        <v>11</v>
       </c>
       <c r="G138">
         <v>400000</v>
@@ -8937,14 +8937,14 @@
       <c r="C139">
         <v>7</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139">
+        <v>92</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s">
         <v>176</v>
-      </c>
-      <c r="E139">
-        <v>92</v>
-      </c>
-      <c r="F139" t="s">
-        <v>11</v>
       </c>
       <c r="G139">
         <v>240000</v>
@@ -8975,14 +8975,14 @@
       <c r="C140">
         <v>7</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140">
+        <v>97</v>
+      </c>
+      <c r="E140" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" t="s">
         <v>174</v>
-      </c>
-      <c r="E140">
-        <v>97</v>
-      </c>
-      <c r="F140" t="s">
-        <v>27</v>
       </c>
       <c r="G140">
         <v>600000</v>
@@ -9013,14 +9013,14 @@
       <c r="C141">
         <v>7</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141">
+        <v>66</v>
+      </c>
+      <c r="E141" t="s">
+        <v>48</v>
+      </c>
+      <c r="F141" t="s">
         <v>177</v>
-      </c>
-      <c r="E141">
-        <v>66</v>
-      </c>
-      <c r="F141" t="s">
-        <v>48</v>
       </c>
       <c r="G141">
         <v>700000</v>
@@ -9051,14 +9051,14 @@
       <c r="C142">
         <v>7</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142">
+        <v>93</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
         <v>169</v>
-      </c>
-      <c r="E142">
-        <v>93</v>
-      </c>
-      <c r="F142" t="s">
-        <v>8</v>
       </c>
       <c r="G142">
         <v>600000</v>
@@ -9089,14 +9089,14 @@
       <c r="C143">
         <v>7</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143">
+        <v>93</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
         <v>178</v>
-      </c>
-      <c r="E143">
-        <v>93</v>
-      </c>
-      <c r="F143" t="s">
-        <v>8</v>
       </c>
       <c r="G143">
         <v>400000</v>
@@ -9127,14 +9127,14 @@
       <c r="C144">
         <v>7</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144">
+        <v>38</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" t="s">
         <v>169</v>
-      </c>
-      <c r="E144">
-        <v>38</v>
-      </c>
-      <c r="F144" t="s">
-        <v>23</v>
       </c>
       <c r="G144">
         <v>300000</v>
@@ -9165,14 +9165,14 @@
       <c r="C145">
         <v>7</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145">
+        <v>55</v>
+      </c>
+      <c r="E145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" t="s">
         <v>179</v>
-      </c>
-      <c r="E145">
-        <v>55</v>
-      </c>
-      <c r="F145" t="s">
-        <v>16</v>
       </c>
       <c r="G145">
         <v>700000</v>
@@ -9203,14 +9203,14 @@
       <c r="C146">
         <v>7</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146">
+        <v>80</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" t="s">
         <v>180</v>
-      </c>
-      <c r="E146">
-        <v>80</v>
-      </c>
-      <c r="F146" t="s">
-        <v>18</v>
       </c>
       <c r="G146">
         <v>560000</v>
@@ -9241,14 +9241,14 @@
       <c r="C147">
         <v>7</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147">
+        <v>92</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
         <v>179</v>
-      </c>
-      <c r="E147">
-        <v>92</v>
-      </c>
-      <c r="F147" t="s">
-        <v>11</v>
       </c>
       <c r="G147">
         <v>600000</v>
@@ -9279,14 +9279,14 @@
       <c r="C148">
         <v>7</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148">
+        <v>41</v>
+      </c>
+      <c r="E148" t="s">
+        <v>49</v>
+      </c>
+      <c r="F148" t="s">
         <v>162</v>
-      </c>
-      <c r="E148">
-        <v>41</v>
-      </c>
-      <c r="F148" t="s">
-        <v>49</v>
       </c>
       <c r="G148">
         <v>700000</v>
@@ -9314,14 +9314,14 @@
       <c r="C149">
         <v>7</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149">
+        <v>41</v>
+      </c>
+      <c r="E149" t="s">
+        <v>49</v>
+      </c>
+      <c r="F149" t="s">
         <v>181</v>
-      </c>
-      <c r="E149">
-        <v>41</v>
-      </c>
-      <c r="F149" t="s">
-        <v>49</v>
       </c>
       <c r="G149">
         <v>600000</v>
@@ -9352,14 +9352,14 @@
       <c r="C150">
         <v>7</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150">
+        <v>57</v>
+      </c>
+      <c r="E150" t="s">
+        <v>37</v>
+      </c>
+      <c r="F150" t="s">
         <v>182</v>
-      </c>
-      <c r="E150">
-        <v>57</v>
-      </c>
-      <c r="F150" t="s">
-        <v>37</v>
       </c>
       <c r="G150">
         <v>400000</v>
@@ -9387,14 +9387,14 @@
       <c r="C151">
         <v>7</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151">
+        <v>34</v>
+      </c>
+      <c r="E151" t="s">
+        <v>50</v>
+      </c>
+      <c r="F151" t="s">
         <v>171</v>
-      </c>
-      <c r="E151">
-        <v>34</v>
-      </c>
-      <c r="F151" t="s">
-        <v>50</v>
       </c>
       <c r="G151">
         <v>400000</v>
@@ -9425,14 +9425,14 @@
       <c r="C152">
         <v>7</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152">
+        <v>34</v>
+      </c>
+      <c r="E152" t="s">
+        <v>50</v>
+      </c>
+      <c r="F152" t="s">
         <v>183</v>
-      </c>
-      <c r="E152">
-        <v>34</v>
-      </c>
-      <c r="F152" t="s">
-        <v>50</v>
       </c>
       <c r="G152">
         <v>320000</v>
@@ -9463,14 +9463,14 @@
       <c r="C153">
         <v>7</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153">
+        <v>41</v>
+      </c>
+      <c r="E153" t="s">
+        <v>49</v>
+      </c>
+      <c r="F153" t="s">
         <v>184</v>
-      </c>
-      <c r="E153">
-        <v>41</v>
-      </c>
-      <c r="F153" t="s">
-        <v>49</v>
       </c>
       <c r="G153">
         <v>700000</v>
@@ -9501,14 +9501,14 @@
       <c r="C154">
         <v>7</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154">
+        <v>55</v>
+      </c>
+      <c r="E154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" t="s">
         <v>185</v>
-      </c>
-      <c r="E154">
-        <v>55</v>
-      </c>
-      <c r="F154" t="s">
-        <v>16</v>
       </c>
       <c r="G154">
         <v>600000</v>
@@ -9539,14 +9539,14 @@
       <c r="C155">
         <v>7</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155">
+        <v>71</v>
+      </c>
+      <c r="E155" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" t="s">
         <v>186</v>
-      </c>
-      <c r="E155">
-        <v>71</v>
-      </c>
-      <c r="F155" t="s">
-        <v>17</v>
       </c>
       <c r="G155">
         <v>500000</v>
@@ -9577,14 +9577,14 @@
       <c r="C156">
         <v>7</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156">
+        <v>28</v>
+      </c>
+      <c r="E156" t="s">
+        <v>51</v>
+      </c>
+      <c r="F156" t="s">
         <v>187</v>
-      </c>
-      <c r="E156">
-        <v>28</v>
-      </c>
-      <c r="F156" t="s">
-        <v>51</v>
       </c>
       <c r="G156">
         <v>700000</v>
@@ -9615,14 +9615,14 @@
       <c r="C157">
         <v>7</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157">
+        <v>100</v>
+      </c>
+      <c r="E157" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" t="s">
         <v>188</v>
-      </c>
-      <c r="E157">
-        <v>100</v>
-      </c>
-      <c r="F157" t="s">
-        <v>25</v>
       </c>
       <c r="G157">
         <v>700000</v>
@@ -9653,14 +9653,14 @@
       <c r="C158">
         <v>7</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158">
+        <v>100</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" t="s">
         <v>189</v>
-      </c>
-      <c r="E158">
-        <v>100</v>
-      </c>
-      <c r="F158" t="s">
-        <v>25</v>
       </c>
       <c r="G158">
         <v>600000</v>
@@ -9691,14 +9691,14 @@
       <c r="C159">
         <v>7</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
+        <v>26</v>
+      </c>
+      <c r="F159" t="s">
         <v>162</v>
-      </c>
-      <c r="E159">
-        <v>14</v>
-      </c>
-      <c r="F159" t="s">
-        <v>26</v>
       </c>
       <c r="G159">
         <v>500000</v>
@@ -9729,14 +9729,14 @@
       <c r="C160">
         <v>7</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160">
+        <v>92</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
         <v>190</v>
-      </c>
-      <c r="E160">
-        <v>92</v>
-      </c>
-      <c r="F160" t="s">
-        <v>11</v>
       </c>
       <c r="G160">
         <v>700000</v>
@@ -9764,14 +9764,14 @@
       <c r="C161">
         <v>7</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161">
+        <v>93</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
         <v>181</v>
-      </c>
-      <c r="E161">
-        <v>93</v>
-      </c>
-      <c r="F161" t="s">
-        <v>8</v>
       </c>
       <c r="G161">
         <v>700000</v>
@@ -9799,14 +9799,14 @@
       <c r="C162">
         <v>7</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162">
+        <v>41</v>
+      </c>
+      <c r="E162" t="s">
+        <v>49</v>
+      </c>
+      <c r="F162" t="s">
         <v>191</v>
-      </c>
-      <c r="E162">
-        <v>41</v>
-      </c>
-      <c r="F162" t="s">
-        <v>49</v>
       </c>
       <c r="G162">
         <v>300000</v>
@@ -9837,14 +9837,14 @@
       <c r="C163">
         <v>7</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163">
+        <v>100</v>
+      </c>
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" t="s">
         <v>192</v>
-      </c>
-      <c r="E163">
-        <v>100</v>
-      </c>
-      <c r="F163" t="s">
-        <v>25</v>
       </c>
       <c r="G163">
         <v>700000</v>
@@ -9875,14 +9875,14 @@
       <c r="C164">
         <v>7</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164">
+        <v>93</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" t="s">
         <v>193</v>
-      </c>
-      <c r="E164">
-        <v>93</v>
-      </c>
-      <c r="F164" t="s">
-        <v>8</v>
       </c>
       <c r="G164">
         <v>500000</v>
@@ -9913,14 +9913,14 @@
       <c r="C165">
         <v>7</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165">
+        <v>18</v>
+      </c>
+      <c r="E165" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" t="s">
         <v>184</v>
-      </c>
-      <c r="E165">
-        <v>18</v>
-      </c>
-      <c r="F165" t="s">
-        <v>20</v>
       </c>
       <c r="G165">
         <v>480000</v>
@@ -9951,14 +9951,14 @@
       <c r="C166">
         <v>7</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166">
+        <v>55</v>
+      </c>
+      <c r="E166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" t="s">
         <v>194</v>
-      </c>
-      <c r="E166">
-        <v>55</v>
-      </c>
-      <c r="F166" t="s">
-        <v>16</v>
       </c>
       <c r="G166">
         <v>700000</v>
@@ -9986,14 +9986,14 @@
       <c r="C167">
         <v>7</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167">
+        <v>35</v>
+      </c>
+      <c r="E167" t="s">
+        <v>41</v>
+      </c>
+      <c r="F167" t="s">
         <v>195</v>
-      </c>
-      <c r="E167">
-        <v>35</v>
-      </c>
-      <c r="F167" t="s">
-        <v>41</v>
       </c>
       <c r="G167">
         <v>400000</v>
@@ -10024,14 +10024,14 @@
       <c r="C168">
         <v>7</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168">
+        <v>92</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
         <v>194</v>
-      </c>
-      <c r="E168">
-        <v>92</v>
-      </c>
-      <c r="F168" t="s">
-        <v>11</v>
       </c>
       <c r="G168">
         <v>600000</v>
@@ -10062,14 +10062,14 @@
       <c r="C169">
         <v>7</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" t="s">
         <v>196</v>
-      </c>
-      <c r="E169">
-        <v>13</v>
-      </c>
-      <c r="F169" t="s">
-        <v>7</v>
       </c>
       <c r="G169">
         <v>420000</v>
@@ -10100,14 +10100,14 @@
       <c r="C170">
         <v>7</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170">
+        <v>77</v>
+      </c>
+      <c r="E170" t="s">
+        <v>52</v>
+      </c>
+      <c r="F170" t="s">
         <v>197</v>
-      </c>
-      <c r="E170">
-        <v>77</v>
-      </c>
-      <c r="F170" t="s">
-        <v>52</v>
       </c>
       <c r="G170">
         <v>300000</v>
@@ -10138,14 +10138,14 @@
       <c r="C171">
         <v>7</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171">
+        <v>92</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
         <v>198</v>
-      </c>
-      <c r="E171">
-        <v>92</v>
-      </c>
-      <c r="F171" t="s">
-        <v>11</v>
       </c>
       <c r="G171">
         <v>560000</v>
@@ -10176,14 +10176,14 @@
       <c r="C172">
         <v>7</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172">
+        <v>52</v>
+      </c>
+      <c r="E172" t="s">
+        <v>53</v>
+      </c>
+      <c r="F172" t="s">
         <v>198</v>
-      </c>
-      <c r="E172">
-        <v>52</v>
-      </c>
-      <c r="F172" t="s">
-        <v>53</v>
       </c>
       <c r="G172">
         <v>240000</v>
@@ -10214,14 +10214,14 @@
       <c r="C173">
         <v>7</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173">
+        <v>55</v>
+      </c>
+      <c r="E173" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" t="s">
         <v>162</v>
-      </c>
-      <c r="E173">
-        <v>55</v>
-      </c>
-      <c r="F173" t="s">
-        <v>16</v>
       </c>
       <c r="G173">
         <v>500000</v>
@@ -10252,14 +10252,14 @@
       <c r="C174">
         <v>7</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174">
+        <v>44</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" t="s">
         <v>199</v>
-      </c>
-      <c r="E174">
-        <v>44</v>
-      </c>
-      <c r="F174" t="s">
-        <v>6</v>
       </c>
       <c r="G174">
         <v>400000</v>
@@ -10290,14 +10290,14 @@
       <c r="C175">
         <v>7</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175">
+        <v>57</v>
+      </c>
+      <c r="E175" t="s">
+        <v>37</v>
+      </c>
+      <c r="F175" t="s">
         <v>162</v>
-      </c>
-      <c r="E175">
-        <v>57</v>
-      </c>
-      <c r="F175" t="s">
-        <v>37</v>
       </c>
       <c r="G175">
         <v>400000</v>
@@ -10328,14 +10328,14 @@
       <c r="C176">
         <v>7</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176">
+        <v>75</v>
+      </c>
+      <c r="E176" t="s">
+        <v>54</v>
+      </c>
+      <c r="F176" t="s">
         <v>162</v>
-      </c>
-      <c r="E176">
-        <v>75</v>
-      </c>
-      <c r="F176" t="s">
-        <v>54</v>
       </c>
       <c r="G176">
         <v>500000</v>
@@ -10366,14 +10366,14 @@
       <c r="C177">
         <v>7</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177">
+        <v>17</v>
+      </c>
+      <c r="E177" t="s">
+        <v>46</v>
+      </c>
+      <c r="F177" s="1">
         <v>47267</v>
-      </c>
-      <c r="E177">
-        <v>17</v>
-      </c>
-      <c r="F177" t="s">
-        <v>46</v>
       </c>
       <c r="G177">
         <v>560000</v>
@@ -10404,14 +10404,14 @@
       <c r="C178">
         <v>7</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178">
+        <v>51</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" t="s">
         <v>200</v>
-      </c>
-      <c r="E178">
-        <v>51</v>
-      </c>
-      <c r="F178" t="s">
-        <v>19</v>
       </c>
       <c r="G178">
         <v>480000</v>
@@ -10442,14 +10442,14 @@
       <c r="C179">
         <v>7</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179">
+        <v>36</v>
+      </c>
+      <c r="E179" t="s">
+        <v>33</v>
+      </c>
+      <c r="F179" t="s">
         <v>201</v>
-      </c>
-      <c r="E179">
-        <v>36</v>
-      </c>
-      <c r="F179" t="s">
-        <v>33</v>
       </c>
       <c r="G179">
         <v>500000</v>
@@ -10480,14 +10480,14 @@
       <c r="C180">
         <v>7</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180">
+        <v>81</v>
+      </c>
+      <c r="E180" t="s">
+        <v>55</v>
+      </c>
+      <c r="F180" t="s">
         <v>202</v>
-      </c>
-      <c r="E180">
-        <v>81</v>
-      </c>
-      <c r="F180" t="s">
-        <v>55</v>
       </c>
       <c r="G180">
         <v>700000</v>
@@ -10518,14 +10518,14 @@
       <c r="C181">
         <v>7</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181">
+        <v>57</v>
+      </c>
+      <c r="E181" t="s">
+        <v>37</v>
+      </c>
+      <c r="F181" t="s">
         <v>203</v>
-      </c>
-      <c r="E181">
-        <v>57</v>
-      </c>
-      <c r="F181" t="s">
-        <v>37</v>
       </c>
       <c r="G181">
         <v>700000</v>
@@ -10556,14 +10556,14 @@
       <c r="C182">
         <v>7</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182">
+        <v>18</v>
+      </c>
+      <c r="E182" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182" t="s">
         <v>204</v>
-      </c>
-      <c r="E182">
-        <v>18</v>
-      </c>
-      <c r="F182" t="s">
-        <v>20</v>
       </c>
       <c r="G182">
         <v>500000</v>
@@ -10594,14 +10594,14 @@
       <c r="C183">
         <v>7</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183">
+        <v>18</v>
+      </c>
+      <c r="E183" t="s">
+        <v>20</v>
+      </c>
+      <c r="F183" t="s">
         <v>205</v>
-      </c>
-      <c r="E183">
-        <v>18</v>
-      </c>
-      <c r="F183" t="s">
-        <v>20</v>
       </c>
       <c r="G183">
         <v>400000</v>
@@ -10632,14 +10632,14 @@
       <c r="C184">
         <v>7</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184">
+        <v>92</v>
+      </c>
+      <c r="E184" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" t="s">
         <v>206</v>
-      </c>
-      <c r="E184">
-        <v>92</v>
-      </c>
-      <c r="F184" t="s">
-        <v>11</v>
       </c>
       <c r="G184">
         <v>700000</v>
@@ -10670,14 +10670,14 @@
       <c r="C185">
         <v>7</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185">
+        <v>57</v>
+      </c>
+      <c r="E185" t="s">
+        <v>37</v>
+      </c>
+      <c r="F185" t="s">
         <v>207</v>
-      </c>
-      <c r="E185">
-        <v>57</v>
-      </c>
-      <c r="F185" t="s">
-        <v>37</v>
       </c>
       <c r="G185">
         <v>700000</v>
@@ -10708,14 +10708,14 @@
       <c r="C186">
         <v>7</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186">
+        <v>57</v>
+      </c>
+      <c r="E186" t="s">
+        <v>37</v>
+      </c>
+      <c r="F186" t="s">
         <v>208</v>
-      </c>
-      <c r="E186">
-        <v>57</v>
-      </c>
-      <c r="F186" t="s">
-        <v>37</v>
       </c>
       <c r="G186">
         <v>400000</v>
@@ -10746,14 +10746,14 @@
       <c r="C187">
         <v>7</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187">
+        <v>85</v>
+      </c>
+      <c r="E187" t="s">
+        <v>56</v>
+      </c>
+      <c r="F187" t="s">
         <v>209</v>
-      </c>
-      <c r="E187">
-        <v>85</v>
-      </c>
-      <c r="F187" t="s">
-        <v>56</v>
       </c>
       <c r="G187">
         <v>480000</v>
@@ -10784,14 +10784,14 @@
       <c r="C188">
         <v>7</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188">
+        <v>53</v>
+      </c>
+      <c r="E188" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188" t="s">
         <v>210</v>
-      </c>
-      <c r="E188">
-        <v>53</v>
-      </c>
-      <c r="F188" t="s">
-        <v>5</v>
       </c>
       <c r="G188">
         <v>400000</v>
@@ -10822,14 +10822,14 @@
       <c r="C189">
         <v>7</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" t="s">
         <v>211</v>
-      </c>
-      <c r="E189">
-        <v>2</v>
-      </c>
-      <c r="F189" t="s">
-        <v>21</v>
       </c>
       <c r="G189">
         <v>600000</v>
@@ -10860,14 +10860,14 @@
       <c r="C190">
         <v>7</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190">
+        <v>90</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
         <v>212</v>
-      </c>
-      <c r="E190">
-        <v>90</v>
-      </c>
-      <c r="F190" t="s">
-        <v>9</v>
       </c>
       <c r="G190">
         <v>720000</v>
@@ -10898,14 +10898,14 @@
       <c r="C191">
         <v>7</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191">
+        <v>57</v>
+      </c>
+      <c r="E191" t="s">
+        <v>37</v>
+      </c>
+      <c r="F191" t="s">
         <v>162</v>
-      </c>
-      <c r="E191">
-        <v>57</v>
-      </c>
-      <c r="F191" t="s">
-        <v>37</v>
       </c>
       <c r="G191">
         <v>600000</v>
@@ -10936,14 +10936,14 @@
       <c r="C192">
         <v>7</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192">
+        <v>18</v>
+      </c>
+      <c r="E192" t="s">
+        <v>20</v>
+      </c>
+      <c r="F192" t="s">
         <v>167</v>
-      </c>
-      <c r="E192">
-        <v>18</v>
-      </c>
-      <c r="F192" t="s">
-        <v>20</v>
       </c>
       <c r="G192">
         <v>400000</v>
@@ -10974,14 +10974,14 @@
       <c r="C193">
         <v>7</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193">
+        <v>44</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193" t="s">
         <v>208</v>
-      </c>
-      <c r="E193">
-        <v>44</v>
-      </c>
-      <c r="F193" t="s">
-        <v>6</v>
       </c>
       <c r="G193">
         <v>560000</v>
@@ -11012,14 +11012,14 @@
       <c r="C194">
         <v>7</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194">
+        <v>92</v>
+      </c>
+      <c r="E194" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" t="s">
         <v>208</v>
-      </c>
-      <c r="E194">
-        <v>92</v>
-      </c>
-      <c r="F194" t="s">
-        <v>11</v>
       </c>
       <c r="G194">
         <v>560000</v>
@@ -11050,14 +11050,14 @@
       <c r="C195">
         <v>7</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195">
+        <v>35</v>
+      </c>
+      <c r="E195" t="s">
+        <v>41</v>
+      </c>
+      <c r="F195" t="s">
         <v>213</v>
-      </c>
-      <c r="E195">
-        <v>35</v>
-      </c>
-      <c r="F195" t="s">
-        <v>41</v>
       </c>
       <c r="G195">
         <v>400000</v>
@@ -11088,14 +11088,14 @@
       <c r="C196">
         <v>7</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196">
+        <v>45</v>
+      </c>
+      <c r="E196" t="s">
+        <v>57</v>
+      </c>
+      <c r="F196" t="s">
         <v>162</v>
-      </c>
-      <c r="E196">
-        <v>45</v>
-      </c>
-      <c r="F196" t="s">
-        <v>57</v>
       </c>
       <c r="G196">
         <v>400000</v>
@@ -11126,14 +11126,14 @@
       <c r="C197">
         <v>7</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197">
+        <v>57</v>
+      </c>
+      <c r="E197" t="s">
+        <v>37</v>
+      </c>
+      <c r="F197" t="s">
         <v>214</v>
-      </c>
-      <c r="E197">
-        <v>57</v>
-      </c>
-      <c r="F197" t="s">
-        <v>37</v>
       </c>
       <c r="G197">
         <v>700000</v>
@@ -11161,14 +11161,14 @@
       <c r="C198">
         <v>7</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198">
+        <v>36</v>
+      </c>
+      <c r="E198" t="s">
+        <v>33</v>
+      </c>
+      <c r="F198" t="s">
         <v>215</v>
-      </c>
-      <c r="E198">
-        <v>36</v>
-      </c>
-      <c r="F198" t="s">
-        <v>33</v>
       </c>
       <c r="G198">
         <v>400000</v>
@@ -11199,14 +11199,14 @@
       <c r="C199">
         <v>7</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199">
+        <v>57</v>
+      </c>
+      <c r="E199" t="s">
+        <v>37</v>
+      </c>
+      <c r="F199" t="s">
         <v>216</v>
-      </c>
-      <c r="E199">
-        <v>57</v>
-      </c>
-      <c r="F199" t="s">
-        <v>37</v>
       </c>
       <c r="G199">
         <v>600000</v>
@@ -11237,14 +11237,14 @@
       <c r="C200">
         <v>7</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200">
+        <v>71</v>
+      </c>
+      <c r="E200" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" t="s">
         <v>217</v>
-      </c>
-      <c r="E200">
-        <v>71</v>
-      </c>
-      <c r="F200" t="s">
-        <v>17</v>
       </c>
       <c r="G200">
         <v>500000</v>
@@ -11272,14 +11272,14 @@
       <c r="C201">
         <v>7</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201">
+        <v>18</v>
+      </c>
+      <c r="E201" t="s">
+        <v>20</v>
+      </c>
+      <c r="F201" t="s">
         <v>218</v>
-      </c>
-      <c r="E201">
-        <v>18</v>
-      </c>
-      <c r="F201" t="s">
-        <v>20</v>
       </c>
       <c r="G201">
         <v>400000</v>
@@ -11310,14 +11310,14 @@
       <c r="C202">
         <v>7</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202">
+        <v>77</v>
+      </c>
+      <c r="E202" t="s">
+        <v>52</v>
+      </c>
+      <c r="F202" t="s">
         <v>193</v>
-      </c>
-      <c r="E202">
-        <v>77</v>
-      </c>
-      <c r="F202" t="s">
-        <v>52</v>
       </c>
       <c r="G202">
         <v>500000</v>
@@ -11348,14 +11348,14 @@
       <c r="C203">
         <v>7</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203">
+        <v>57</v>
+      </c>
+      <c r="E203" t="s">
+        <v>37</v>
+      </c>
+      <c r="F203" t="s">
         <v>219</v>
-      </c>
-      <c r="E203">
-        <v>57</v>
-      </c>
-      <c r="F203" t="s">
-        <v>37</v>
       </c>
       <c r="G203">
         <v>320000</v>
@@ -11386,14 +11386,14 @@
       <c r="C204">
         <v>7</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204">
+        <v>57</v>
+      </c>
+      <c r="E204" t="s">
+        <v>37</v>
+      </c>
+      <c r="F204" t="s">
         <v>181</v>
-      </c>
-      <c r="E204">
-        <v>57</v>
-      </c>
-      <c r="F204" t="s">
-        <v>37</v>
       </c>
       <c r="G204">
         <v>700000</v>
@@ -11424,14 +11424,14 @@
       <c r="C205">
         <v>7</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205">
+        <v>38</v>
+      </c>
+      <c r="E205" t="s">
+        <v>23</v>
+      </c>
+      <c r="F205" t="s">
         <v>208</v>
-      </c>
-      <c r="E205">
-        <v>38</v>
-      </c>
-      <c r="F205" t="s">
-        <v>23</v>
       </c>
       <c r="G205">
         <v>480000</v>
@@ -11462,14 +11462,14 @@
       <c r="C206">
         <v>7</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206">
+        <v>92</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" t="s">
         <v>169</v>
-      </c>
-      <c r="E206">
-        <v>92</v>
-      </c>
-      <c r="F206" t="s">
-        <v>11</v>
       </c>
       <c r="G206">
         <v>600000</v>
@@ -11500,14 +11500,14 @@
       <c r="C207">
         <v>7</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207">
+        <v>57</v>
+      </c>
+      <c r="E207" t="s">
+        <v>37</v>
+      </c>
+      <c r="F207" t="s">
         <v>174</v>
-      </c>
-      <c r="E207">
-        <v>57</v>
-      </c>
-      <c r="F207" t="s">
-        <v>37</v>
       </c>
       <c r="G207">
         <v>600000</v>
@@ -11538,14 +11538,14 @@
       <c r="C208">
         <v>7</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208">
+        <v>87</v>
+      </c>
+      <c r="E208" t="s">
+        <v>58</v>
+      </c>
+      <c r="F208" t="s">
         <v>220</v>
-      </c>
-      <c r="E208">
-        <v>87</v>
-      </c>
-      <c r="F208" t="s">
-        <v>58</v>
       </c>
       <c r="G208">
         <v>400000</v>
@@ -11573,14 +11573,14 @@
       <c r="C209">
         <v>7</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209">
+        <v>54</v>
+      </c>
+      <c r="E209" t="s">
+        <v>59</v>
+      </c>
+      <c r="F209" t="s">
         <v>221</v>
-      </c>
-      <c r="E209">
-        <v>54</v>
-      </c>
-      <c r="F209" t="s">
-        <v>59</v>
       </c>
       <c r="G209">
         <v>560000</v>
@@ -11611,14 +11611,14 @@
       <c r="C210">
         <v>7</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210">
+        <v>55</v>
+      </c>
+      <c r="E210" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" t="s">
         <v>222</v>
-      </c>
-      <c r="E210">
-        <v>55</v>
-      </c>
-      <c r="F210" t="s">
-        <v>16</v>
       </c>
       <c r="G210">
         <v>320000</v>
@@ -11649,14 +11649,14 @@
       <c r="C211">
         <v>7</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211">
+        <v>6</v>
+      </c>
+      <c r="E211" t="s">
+        <v>32</v>
+      </c>
+      <c r="F211" t="s">
         <v>163</v>
-      </c>
-      <c r="E211">
-        <v>6</v>
-      </c>
-      <c r="F211" t="s">
-        <v>32</v>
       </c>
       <c r="G211">
         <v>400000</v>
@@ -11687,14 +11687,14 @@
       <c r="C212">
         <v>7</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212">
+        <v>36</v>
+      </c>
+      <c r="E212" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" t="s">
         <v>208</v>
-      </c>
-      <c r="E212">
-        <v>36</v>
-      </c>
-      <c r="F212" t="s">
-        <v>33</v>
       </c>
       <c r="G212">
         <v>400000</v>
@@ -11725,14 +11725,14 @@
       <c r="C213">
         <v>7</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213">
+        <v>92</v>
+      </c>
+      <c r="E213" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" t="s">
         <v>208</v>
-      </c>
-      <c r="E213">
-        <v>92</v>
-      </c>
-      <c r="F213" t="s">
-        <v>11</v>
       </c>
       <c r="G213">
         <v>400000</v>
@@ -11763,14 +11763,14 @@
       <c r="C214">
         <v>7</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214">
+        <v>57</v>
+      </c>
+      <c r="E214" t="s">
+        <v>37</v>
+      </c>
+      <c r="F214" t="s">
         <v>223</v>
-      </c>
-      <c r="E214">
-        <v>57</v>
-      </c>
-      <c r="F214" t="s">
-        <v>37</v>
       </c>
       <c r="G214">
         <v>400000</v>
@@ -11801,14 +11801,14 @@
       <c r="C215">
         <v>7</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215">
+        <v>71</v>
+      </c>
+      <c r="E215" t="s">
+        <v>17</v>
+      </c>
+      <c r="F215" t="s">
         <v>178</v>
-      </c>
-      <c r="E215">
-        <v>71</v>
-      </c>
-      <c r="F215" t="s">
-        <v>17</v>
       </c>
       <c r="G215">
         <v>500000</v>
@@ -11839,14 +11839,14 @@
       <c r="C216">
         <v>7</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216">
+        <v>57</v>
+      </c>
+      <c r="E216" t="s">
+        <v>37</v>
+      </c>
+      <c r="F216" t="s">
         <v>175</v>
-      </c>
-      <c r="E216">
-        <v>57</v>
-      </c>
-      <c r="F216" t="s">
-        <v>37</v>
       </c>
       <c r="G216">
         <v>400000</v>
@@ -11877,14 +11877,14 @@
       <c r="C217">
         <v>7</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217">
+        <v>40</v>
+      </c>
+      <c r="E217" t="s">
+        <v>43</v>
+      </c>
+      <c r="F217" t="s">
         <v>224</v>
-      </c>
-      <c r="E217">
-        <v>40</v>
-      </c>
-      <c r="F217" t="s">
-        <v>43</v>
       </c>
       <c r="G217">
         <v>400000</v>
@@ -11915,14 +11915,14 @@
       <c r="C218">
         <v>7</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>60</v>
+      </c>
+      <c r="F218" t="s">
         <v>208</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218" t="s">
-        <v>60</v>
       </c>
       <c r="G218">
         <v>560000</v>
@@ -11953,14 +11953,14 @@
       <c r="C219">
         <v>7</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219">
+        <v>75</v>
+      </c>
+      <c r="E219" t="s">
+        <v>54</v>
+      </c>
+      <c r="F219" t="s">
         <v>163</v>
-      </c>
-      <c r="E219">
-        <v>75</v>
-      </c>
-      <c r="F219" t="s">
-        <v>54</v>
       </c>
       <c r="G219">
         <v>400000</v>
@@ -11991,14 +11991,14 @@
       <c r="C220">
         <v>7</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220">
+        <v>6</v>
+      </c>
+      <c r="E220" t="s">
+        <v>32</v>
+      </c>
+      <c r="F220" t="s">
         <v>208</v>
-      </c>
-      <c r="E220">
-        <v>6</v>
-      </c>
-      <c r="F220" t="s">
-        <v>32</v>
       </c>
       <c r="G220">
         <v>560000</v>
@@ -12029,14 +12029,14 @@
       <c r="C221">
         <v>7</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221">
+        <v>92</v>
+      </c>
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" t="s">
         <v>208</v>
-      </c>
-      <c r="E221">
-        <v>92</v>
-      </c>
-      <c r="F221" t="s">
-        <v>11</v>
       </c>
       <c r="G221">
         <v>320000</v>
@@ -12067,14 +12067,14 @@
       <c r="C222">
         <v>7</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222">
+        <v>79</v>
+      </c>
+      <c r="E222" t="s">
+        <v>30</v>
+      </c>
+      <c r="F222" t="s">
         <v>225</v>
-      </c>
-      <c r="E222">
-        <v>79</v>
-      </c>
-      <c r="F222" t="s">
-        <v>30</v>
       </c>
       <c r="G222">
         <v>420000</v>
@@ -12105,14 +12105,14 @@
       <c r="C223">
         <v>7</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223">
+        <v>100</v>
+      </c>
+      <c r="E223" t="s">
+        <v>25</v>
+      </c>
+      <c r="F223" t="s">
         <v>226</v>
-      </c>
-      <c r="E223">
-        <v>100</v>
-      </c>
-      <c r="F223" t="s">
-        <v>25</v>
       </c>
       <c r="G223">
         <v>320000</v>
@@ -12143,14 +12143,14 @@
       <c r="C224">
         <v>7</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224">
+        <v>18</v>
+      </c>
+      <c r="E224" t="s">
+        <v>20</v>
+      </c>
+      <c r="F224" t="s">
         <v>176</v>
-      </c>
-      <c r="E224">
-        <v>18</v>
-      </c>
-      <c r="F224" t="s">
-        <v>20</v>
       </c>
       <c r="G224">
         <v>480000</v>
@@ -12181,14 +12181,14 @@
       <c r="C225">
         <v>7</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225">
+        <v>71</v>
+      </c>
+      <c r="E225" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225" t="s">
         <v>226</v>
-      </c>
-      <c r="E225">
-        <v>71</v>
-      </c>
-      <c r="F225" t="s">
-        <v>17</v>
       </c>
       <c r="G225">
         <v>420000</v>
@@ -12219,14 +12219,14 @@
       <c r="C226">
         <v>7</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226">
+        <v>100</v>
+      </c>
+      <c r="E226" t="s">
+        <v>25</v>
+      </c>
+      <c r="F226" t="s">
         <v>197</v>
-      </c>
-      <c r="E226">
-        <v>100</v>
-      </c>
-      <c r="F226" t="s">
-        <v>25</v>
       </c>
       <c r="G226">
         <v>560000</v>
@@ -12257,14 +12257,14 @@
       <c r="C227">
         <v>7</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227">
+        <v>93</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" t="s">
         <v>227</v>
-      </c>
-      <c r="E227">
-        <v>93</v>
-      </c>
-      <c r="F227" t="s">
-        <v>8</v>
       </c>
       <c r="G227">
         <v>360000</v>
@@ -12292,14 +12292,14 @@
       <c r="C228">
         <v>7</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228">
+        <v>100</v>
+      </c>
+      <c r="E228" t="s">
+        <v>25</v>
+      </c>
+      <c r="F228" t="s">
         <v>228</v>
-      </c>
-      <c r="E228">
-        <v>100</v>
-      </c>
-      <c r="F228" t="s">
-        <v>25</v>
       </c>
       <c r="G228">
         <v>500000</v>
@@ -12330,14 +12330,14 @@
       <c r="C229">
         <v>7</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229">
+        <v>13</v>
+      </c>
+      <c r="E229" t="s">
+        <v>7</v>
+      </c>
+      <c r="F229" s="1">
         <v>47267</v>
-      </c>
-      <c r="E229">
-        <v>13</v>
-      </c>
-      <c r="F229" t="s">
-        <v>7</v>
       </c>
       <c r="G229">
         <v>400000</v>
@@ -12365,14 +12365,14 @@
       <c r="C230">
         <v>7</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230">
+        <v>36</v>
+      </c>
+      <c r="E230" t="s">
+        <v>33</v>
+      </c>
+      <c r="F230" t="s">
         <v>229</v>
-      </c>
-      <c r="E230">
-        <v>36</v>
-      </c>
-      <c r="F230" t="s">
-        <v>33</v>
       </c>
       <c r="G230">
         <v>300000</v>
@@ -12400,14 +12400,14 @@
       <c r="C231">
         <v>7</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231" t="s">
         <v>169</v>
-      </c>
-      <c r="E231">
-        <v>2</v>
-      </c>
-      <c r="F231" t="s">
-        <v>21</v>
       </c>
       <c r="G231">
         <v>700000</v>
@@ -12438,14 +12438,14 @@
       <c r="C232">
         <v>7</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232">
+        <v>13</v>
+      </c>
+      <c r="E232" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232" t="s">
         <v>219</v>
-      </c>
-      <c r="E232">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
-        <v>7</v>
       </c>
       <c r="G232">
         <v>600000</v>
@@ -12476,14 +12476,14 @@
       <c r="C233">
         <v>7</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233">
+        <v>7</v>
+      </c>
+      <c r="E233" t="s">
+        <v>38</v>
+      </c>
+      <c r="F233" t="s">
         <v>163</v>
-      </c>
-      <c r="E233">
-        <v>7</v>
-      </c>
-      <c r="F233" t="s">
-        <v>38</v>
       </c>
       <c r="G233">
         <v>480000</v>
@@ -12514,14 +12514,14 @@
       <c r="C234">
         <v>7</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234">
+        <v>66</v>
+      </c>
+      <c r="E234" t="s">
+        <v>48</v>
+      </c>
+      <c r="F234" t="s">
         <v>230</v>
-      </c>
-      <c r="E234">
-        <v>66</v>
-      </c>
-      <c r="F234" t="s">
-        <v>48</v>
       </c>
       <c r="G234">
         <v>500000</v>
@@ -12552,14 +12552,14 @@
       <c r="C235">
         <v>7</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235">
+        <v>7</v>
+      </c>
+      <c r="E235" t="s">
+        <v>38</v>
+      </c>
+      <c r="F235" t="s">
         <v>231</v>
-      </c>
-      <c r="E235">
-        <v>7</v>
-      </c>
-      <c r="F235" t="s">
-        <v>38</v>
       </c>
       <c r="G235">
         <v>700000</v>
@@ -12590,14 +12590,14 @@
       <c r="C236">
         <v>7</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236">
+        <v>52</v>
+      </c>
+      <c r="E236" t="s">
+        <v>53</v>
+      </c>
+      <c r="F236" t="s">
         <v>188</v>
-      </c>
-      <c r="E236">
-        <v>52</v>
-      </c>
-      <c r="F236" t="s">
-        <v>53</v>
       </c>
       <c r="G236">
         <v>600000</v>
@@ -12625,14 +12625,14 @@
       <c r="C237">
         <v>7</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237">
+        <v>36</v>
+      </c>
+      <c r="E237" t="s">
+        <v>33</v>
+      </c>
+      <c r="F237" t="s">
         <v>163</v>
-      </c>
-      <c r="E237">
-        <v>36</v>
-      </c>
-      <c r="F237" t="s">
-        <v>33</v>
       </c>
       <c r="G237">
         <v>480000</v>
@@ -12663,14 +12663,14 @@
       <c r="C238">
         <v>8</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238">
+        <v>80</v>
+      </c>
+      <c r="E238" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238" t="s">
         <v>232</v>
-      </c>
-      <c r="E238">
-        <v>80</v>
-      </c>
-      <c r="F238" t="s">
-        <v>18</v>
       </c>
       <c r="G238">
         <v>700000</v>
@@ -12701,14 +12701,14 @@
       <c r="C239">
         <v>8</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239">
+        <v>13</v>
+      </c>
+      <c r="E239" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239" t="s">
         <v>232</v>
-      </c>
-      <c r="E239">
-        <v>13</v>
-      </c>
-      <c r="F239" t="s">
-        <v>7</v>
       </c>
       <c r="G239">
         <v>600000</v>
@@ -12739,14 +12739,14 @@
       <c r="C240">
         <v>8</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240">
+        <v>14</v>
+      </c>
+      <c r="E240" t="s">
+        <v>26</v>
+      </c>
+      <c r="F240" t="s">
         <v>233</v>
-      </c>
-      <c r="E240">
-        <v>14</v>
-      </c>
-      <c r="F240" t="s">
-        <v>26</v>
       </c>
       <c r="G240">
         <v>400000</v>
@@ -12777,14 +12777,14 @@
       <c r="C241">
         <v>8</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241">
+        <v>11</v>
+      </c>
+      <c r="E241" t="s">
+        <v>31</v>
+      </c>
+      <c r="F241" t="s">
         <v>234</v>
-      </c>
-      <c r="E241">
-        <v>11</v>
-      </c>
-      <c r="F241" t="s">
-        <v>31</v>
       </c>
       <c r="G241">
         <v>700000</v>
@@ -12815,14 +12815,14 @@
       <c r="C242">
         <v>8</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242">
+        <v>51</v>
+      </c>
+      <c r="E242" t="s">
+        <v>19</v>
+      </c>
+      <c r="F242" t="s">
         <v>232</v>
-      </c>
-      <c r="E242">
-        <v>51</v>
-      </c>
-      <c r="F242" t="s">
-        <v>19</v>
       </c>
       <c r="G242">
         <v>500000</v>
@@ -12853,14 +12853,14 @@
       <c r="C243">
         <v>8</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243">
+        <v>57</v>
+      </c>
+      <c r="E243" t="s">
+        <v>37</v>
+      </c>
+      <c r="F243" t="s">
         <v>235</v>
-      </c>
-      <c r="E243">
-        <v>57</v>
-      </c>
-      <c r="F243" t="s">
-        <v>37</v>
       </c>
       <c r="G243">
         <v>600000</v>
@@ -12891,14 +12891,14 @@
       <c r="C244">
         <v>8</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244">
+        <v>58</v>
+      </c>
+      <c r="E244" t="s">
+        <v>61</v>
+      </c>
+      <c r="F244" t="s">
         <v>232</v>
-      </c>
-      <c r="E244">
-        <v>58</v>
-      </c>
-      <c r="F244" t="s">
-        <v>61</v>
       </c>
       <c r="G244">
         <v>500000</v>
@@ -12929,14 +12929,14 @@
       <c r="C245">
         <v>8</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245">
+        <v>4</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" t="s">
         <v>232</v>
-      </c>
-      <c r="E245">
-        <v>4</v>
-      </c>
-      <c r="F245" t="s">
-        <v>10</v>
       </c>
       <c r="G245">
         <v>600000</v>
@@ -12967,14 +12967,14 @@
       <c r="C246">
         <v>8</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246">
+        <v>71</v>
+      </c>
+      <c r="E246" t="s">
+        <v>17</v>
+      </c>
+      <c r="F246" t="s">
         <v>232</v>
-      </c>
-      <c r="E246">
-        <v>71</v>
-      </c>
-      <c r="F246" t="s">
-        <v>17</v>
       </c>
       <c r="G246">
         <v>400000</v>
@@ -13005,14 +13005,14 @@
       <c r="C247">
         <v>8</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247">
+        <v>77</v>
+      </c>
+      <c r="E247" t="s">
+        <v>52</v>
+      </c>
+      <c r="F247" t="s">
         <v>232</v>
-      </c>
-      <c r="E247">
-        <v>77</v>
-      </c>
-      <c r="F247" t="s">
-        <v>52</v>
       </c>
       <c r="G247">
         <v>500000</v>
@@ -13043,14 +13043,14 @@
       <c r="C248">
         <v>8</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248">
+        <v>76</v>
+      </c>
+      <c r="E248" t="s">
+        <v>42</v>
+      </c>
+      <c r="F248" t="s">
         <v>236</v>
-      </c>
-      <c r="E248">
-        <v>76</v>
-      </c>
-      <c r="F248" t="s">
-        <v>42</v>
       </c>
       <c r="G248">
         <v>600000</v>
@@ -13081,14 +13081,14 @@
       <c r="C249">
         <v>8</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249">
+        <v>35</v>
+      </c>
+      <c r="E249" t="s">
+        <v>41</v>
+      </c>
+      <c r="F249" t="s">
         <v>232</v>
-      </c>
-      <c r="E249">
-        <v>35</v>
-      </c>
-      <c r="F249" t="s">
-        <v>41</v>
       </c>
       <c r="G249">
         <v>700000</v>
@@ -13116,14 +13116,14 @@
       <c r="C250">
         <v>8</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250">
+        <v>55</v>
+      </c>
+      <c r="E250" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" t="s">
         <v>237</v>
-      </c>
-      <c r="E250">
-        <v>55</v>
-      </c>
-      <c r="F250" t="s">
-        <v>16</v>
       </c>
       <c r="G250">
         <v>700000</v>
@@ -13154,14 +13154,14 @@
       <c r="C251">
         <v>8</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251">
+        <v>100</v>
+      </c>
+      <c r="E251" t="s">
+        <v>25</v>
+      </c>
+      <c r="F251" t="s">
         <v>238</v>
-      </c>
-      <c r="E251">
-        <v>100</v>
-      </c>
-      <c r="F251" t="s">
-        <v>25</v>
       </c>
       <c r="G251">
         <v>600000</v>
@@ -13192,14 +13192,14 @@
       <c r="C252">
         <v>8</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252">
+        <v>92</v>
+      </c>
+      <c r="E252" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" t="s">
         <v>232</v>
-      </c>
-      <c r="E252">
-        <v>92</v>
-      </c>
-      <c r="F252" t="s">
-        <v>11</v>
       </c>
       <c r="G252">
         <v>700000</v>
@@ -13230,14 +13230,14 @@
       <c r="C253">
         <v>8</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253">
+        <v>55</v>
+      </c>
+      <c r="E253" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253" t="s">
         <v>232</v>
-      </c>
-      <c r="E253">
-        <v>55</v>
-      </c>
-      <c r="F253" t="s">
-        <v>16</v>
       </c>
       <c r="G253">
         <v>500000</v>
@@ -13268,14 +13268,14 @@
       <c r="C254">
         <v>8</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254">
+        <v>80</v>
+      </c>
+      <c r="E254" t="s">
+        <v>18</v>
+      </c>
+      <c r="F254" t="s">
         <v>239</v>
-      </c>
-      <c r="E254">
-        <v>80</v>
-      </c>
-      <c r="F254" t="s">
-        <v>18</v>
       </c>
       <c r="G254">
         <v>700000</v>
@@ -13306,14 +13306,14 @@
       <c r="C255">
         <v>8</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255">
+        <v>93</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255" t="s">
         <v>84</v>
-      </c>
-      <c r="E255">
-        <v>93</v>
-      </c>
-      <c r="F255" t="s">
-        <v>8</v>
       </c>
       <c r="G255">
         <v>400000</v>
@@ -13344,14 +13344,14 @@
       <c r="C256">
         <v>8</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256">
+        <v>36</v>
+      </c>
+      <c r="E256" t="s">
+        <v>33</v>
+      </c>
+      <c r="F256" t="s">
         <v>232</v>
-      </c>
-      <c r="E256">
-        <v>36</v>
-      </c>
-      <c r="F256" t="s">
-        <v>33</v>
       </c>
       <c r="G256">
         <v>500000</v>
@@ -13382,14 +13382,14 @@
       <c r="C257">
         <v>8</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257">
+        <v>51</v>
+      </c>
+      <c r="E257" t="s">
+        <v>19</v>
+      </c>
+      <c r="F257" t="s">
         <v>240</v>
-      </c>
-      <c r="E257">
-        <v>51</v>
-      </c>
-      <c r="F257" t="s">
-        <v>19</v>
       </c>
       <c r="G257">
         <v>400000</v>
@@ -13420,14 +13420,14 @@
       <c r="C258">
         <v>8</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258">
+        <v>80</v>
+      </c>
+      <c r="E258" t="s">
+        <v>18</v>
+      </c>
+      <c r="F258" t="s">
         <v>240</v>
-      </c>
-      <c r="E258">
-        <v>80</v>
-      </c>
-      <c r="F258" t="s">
-        <v>18</v>
       </c>
       <c r="G258">
         <v>600000</v>
@@ -13458,14 +13458,14 @@
       <c r="C259">
         <v>8</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259">
+        <v>11</v>
+      </c>
+      <c r="E259" t="s">
+        <v>31</v>
+      </c>
+      <c r="F259" t="s">
         <v>240</v>
-      </c>
-      <c r="E259">
-        <v>11</v>
-      </c>
-      <c r="F259" t="s">
-        <v>31</v>
       </c>
       <c r="G259">
         <v>500000</v>
@@ -13496,14 +13496,14 @@
       <c r="C260">
         <v>8</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260">
+        <v>55</v>
+      </c>
+      <c r="E260" t="s">
+        <v>16</v>
+      </c>
+      <c r="F260" t="s">
         <v>232</v>
-      </c>
-      <c r="E260">
-        <v>55</v>
-      </c>
-      <c r="F260" t="s">
-        <v>16</v>
       </c>
       <c r="G260">
         <v>500000</v>
@@ -13534,14 +13534,14 @@
       <c r="C261">
         <v>8</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261">
+        <v>93</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" t="s">
         <v>232</v>
-      </c>
-      <c r="E261">
-        <v>93</v>
-      </c>
-      <c r="F261" t="s">
-        <v>8</v>
       </c>
       <c r="G261">
         <v>600000</v>
@@ -13572,14 +13572,14 @@
       <c r="C262">
         <v>8</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262">
+        <v>96</v>
+      </c>
+      <c r="E262" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" t="s">
         <v>84</v>
-      </c>
-      <c r="E262">
-        <v>96</v>
-      </c>
-      <c r="F262" t="s">
-        <v>12</v>
       </c>
       <c r="G262">
         <v>400000</v>
@@ -13610,14 +13610,14 @@
       <c r="C263">
         <v>8</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263">
+        <v>80</v>
+      </c>
+      <c r="E263" t="s">
+        <v>18</v>
+      </c>
+      <c r="F263" t="s">
         <v>240</v>
-      </c>
-      <c r="E263">
-        <v>80</v>
-      </c>
-      <c r="F263" t="s">
-        <v>18</v>
       </c>
       <c r="G263">
         <v>600000</v>
@@ -13648,14 +13648,14 @@
       <c r="C264">
         <v>8</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264">
+        <v>41</v>
+      </c>
+      <c r="E264" t="s">
+        <v>49</v>
+      </c>
+      <c r="F264" t="s">
         <v>232</v>
-      </c>
-      <c r="E264">
-        <v>41</v>
-      </c>
-      <c r="F264" t="s">
-        <v>49</v>
       </c>
       <c r="G264">
         <v>700000</v>
@@ -13683,14 +13683,14 @@
       <c r="C265">
         <v>9</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265">
+        <v>66</v>
+      </c>
+      <c r="E265" t="s">
+        <v>48</v>
+      </c>
+      <c r="F265" t="s">
         <v>241</v>
-      </c>
-      <c r="E265">
-        <v>66</v>
-      </c>
-      <c r="F265" t="s">
-        <v>48</v>
       </c>
       <c r="G265">
         <v>350000</v>
@@ -13721,14 +13721,14 @@
       <c r="C266">
         <v>9</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266">
+        <v>80</v>
+      </c>
+      <c r="E266" t="s">
+        <v>18</v>
+      </c>
+      <c r="F266" t="s">
         <v>241</v>
-      </c>
-      <c r="E266">
-        <v>80</v>
-      </c>
-      <c r="F266" t="s">
-        <v>18</v>
       </c>
       <c r="G266">
         <v>600000</v>
@@ -13759,14 +13759,14 @@
       <c r="C267">
         <v>9</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267">
+        <v>61</v>
+      </c>
+      <c r="E267" t="s">
+        <v>62</v>
+      </c>
+      <c r="F267" t="s">
         <v>242</v>
-      </c>
-      <c r="E267">
-        <v>61</v>
-      </c>
-      <c r="F267" t="s">
-        <v>62</v>
       </c>
       <c r="G267">
         <v>400000</v>
@@ -13797,14 +13797,14 @@
       <c r="C268">
         <v>9</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268">
+        <v>97</v>
+      </c>
+      <c r="E268" t="s">
+        <v>27</v>
+      </c>
+      <c r="F268" t="s">
         <v>243</v>
-      </c>
-      <c r="E268">
-        <v>97</v>
-      </c>
-      <c r="F268" t="s">
-        <v>27</v>
       </c>
       <c r="G268">
         <v>500000</v>
@@ -13835,14 +13835,14 @@
       <c r="C269">
         <v>9</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269">
+        <v>92</v>
+      </c>
+      <c r="E269" t="s">
+        <v>11</v>
+      </c>
+      <c r="F269" t="s">
         <v>244</v>
-      </c>
-      <c r="E269">
-        <v>92</v>
-      </c>
-      <c r="F269" t="s">
-        <v>11</v>
       </c>
       <c r="G269">
         <v>700000</v>
@@ -13873,14 +13873,14 @@
       <c r="C270">
         <v>9</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270">
+        <v>93</v>
+      </c>
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270" t="s">
         <v>245</v>
-      </c>
-      <c r="E270">
-        <v>93</v>
-      </c>
-      <c r="F270" t="s">
-        <v>8</v>
       </c>
       <c r="G270">
         <v>200000</v>
@@ -13911,14 +13911,14 @@
       <c r="C271">
         <v>9</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271">
+        <v>38</v>
+      </c>
+      <c r="E271" t="s">
+        <v>23</v>
+      </c>
+      <c r="F271" t="s">
         <v>245</v>
-      </c>
-      <c r="E271">
-        <v>38</v>
-      </c>
-      <c r="F271" t="s">
-        <v>23</v>
       </c>
       <c r="G271">
         <v>500000</v>
@@ -13949,14 +13949,14 @@
       <c r="C272">
         <v>9</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272">
+        <v>18</v>
+      </c>
+      <c r="E272" t="s">
+        <v>20</v>
+      </c>
+      <c r="F272" t="s">
         <v>241</v>
-      </c>
-      <c r="E272">
-        <v>18</v>
-      </c>
-      <c r="F272" t="s">
-        <v>20</v>
       </c>
       <c r="G272">
         <v>700000</v>
@@ -13987,14 +13987,14 @@
       <c r="C273">
         <v>9</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273">
+        <v>60</v>
+      </c>
+      <c r="E273" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" t="s">
         <v>246</v>
-      </c>
-      <c r="E273">
-        <v>60</v>
-      </c>
-      <c r="F273" t="s">
-        <v>15</v>
       </c>
       <c r="G273">
         <v>700000</v>
@@ -14025,14 +14025,14 @@
       <c r="C274">
         <v>9</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274">
+        <v>21</v>
+      </c>
+      <c r="E274" t="s">
+        <v>22</v>
+      </c>
+      <c r="F274" t="s">
         <v>246</v>
-      </c>
-      <c r="E274">
-        <v>21</v>
-      </c>
-      <c r="F274" t="s">
-        <v>22</v>
       </c>
       <c r="G274">
         <v>400000</v>
@@ -14063,14 +14063,14 @@
       <c r="C275">
         <v>9</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275">
+        <v>8</v>
+      </c>
+      <c r="E275" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" t="s">
         <v>246</v>
-      </c>
-      <c r="E275">
-        <v>8</v>
-      </c>
-      <c r="F275" t="s">
-        <v>14</v>
       </c>
       <c r="G275">
         <v>600000</v>
@@ -14101,14 +14101,14 @@
       <c r="C276">
         <v>9</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276">
+        <v>78</v>
+      </c>
+      <c r="E276" t="s">
+        <v>28</v>
+      </c>
+      <c r="F276" t="s">
         <v>246</v>
-      </c>
-      <c r="E276">
-        <v>78</v>
-      </c>
-      <c r="F276" t="s">
-        <v>28</v>
       </c>
       <c r="G276">
         <v>600000</v>
@@ -14139,14 +14139,14 @@
       <c r="C277">
         <v>9</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277">
+        <v>92</v>
+      </c>
+      <c r="E277" t="s">
+        <v>11</v>
+      </c>
+      <c r="F277" t="s">
         <v>246</v>
-      </c>
-      <c r="E277">
-        <v>92</v>
-      </c>
-      <c r="F277" t="s">
-        <v>11</v>
       </c>
       <c r="G277">
         <v>700000</v>
@@ -14177,14 +14177,14 @@
       <c r="C278">
         <v>9</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278">
+        <v>18</v>
+      </c>
+      <c r="E278" t="s">
+        <v>20</v>
+      </c>
+      <c r="F278" t="s">
         <v>246</v>
-      </c>
-      <c r="E278">
-        <v>18</v>
-      </c>
-      <c r="F278" t="s">
-        <v>20</v>
       </c>
       <c r="G278">
         <v>600000</v>
@@ -14215,14 +14215,14 @@
       <c r="C279">
         <v>9</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279">
+        <v>57</v>
+      </c>
+      <c r="E279" t="s">
+        <v>37</v>
+      </c>
+      <c r="F279" t="s">
         <v>246</v>
-      </c>
-      <c r="E279">
-        <v>57</v>
-      </c>
-      <c r="F279" t="s">
-        <v>37</v>
       </c>
       <c r="G279">
         <v>700000</v>
@@ -14250,14 +14250,14 @@
       <c r="C280">
         <v>10</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280">
+        <v>71</v>
+      </c>
+      <c r="E280" t="s">
+        <v>17</v>
+      </c>
+      <c r="F280" t="s">
         <v>247</v>
-      </c>
-      <c r="E280">
-        <v>71</v>
-      </c>
-      <c r="F280" t="s">
-        <v>17</v>
       </c>
       <c r="G280">
         <v>250000</v>
@@ -14288,14 +14288,14 @@
       <c r="C281">
         <v>10</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281">
+        <v>38</v>
+      </c>
+      <c r="E281" t="s">
+        <v>23</v>
+      </c>
+      <c r="F281" t="s">
         <v>248</v>
-      </c>
-      <c r="E281">
-        <v>38</v>
-      </c>
-      <c r="F281" t="s">
-        <v>23</v>
       </c>
       <c r="G281">
         <v>700000</v>
@@ -14326,14 +14326,14 @@
       <c r="C282">
         <v>10</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282">
+        <v>38</v>
+      </c>
+      <c r="E282" t="s">
+        <v>23</v>
+      </c>
+      <c r="F282" t="s">
         <v>249</v>
-      </c>
-      <c r="E282">
-        <v>38</v>
-      </c>
-      <c r="F282" t="s">
-        <v>23</v>
       </c>
       <c r="G282">
         <v>700000</v>
@@ -14364,14 +14364,14 @@
       <c r="C283">
         <v>10</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283">
+        <v>10</v>
+      </c>
+      <c r="E283" t="s">
+        <v>63</v>
+      </c>
+      <c r="F283" t="s">
         <v>250</v>
-      </c>
-      <c r="E283">
-        <v>10</v>
-      </c>
-      <c r="F283" t="s">
-        <v>63</v>
       </c>
       <c r="G283">
         <v>600000</v>
@@ -14399,14 +14399,14 @@
       <c r="C284">
         <v>10</v>
       </c>
-      <c r="D284" s="1">
+      <c r="D284">
+        <v>69</v>
+      </c>
+      <c r="E284" t="s">
+        <v>39</v>
+      </c>
+      <c r="F284" s="1">
         <v>43551</v>
-      </c>
-      <c r="E284">
-        <v>69</v>
-      </c>
-      <c r="F284" t="s">
-        <v>39</v>
       </c>
       <c r="G284">
         <v>700000</v>
@@ -14437,14 +14437,14 @@
       <c r="C285">
         <v>10</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285">
+        <v>93</v>
+      </c>
+      <c r="E285" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285" t="s">
         <v>251</v>
-      </c>
-      <c r="E285">
-        <v>93</v>
-      </c>
-      <c r="F285" t="s">
-        <v>8</v>
       </c>
       <c r="G285">
         <v>400000</v>
@@ -14475,14 +14475,14 @@
       <c r="C286">
         <v>10</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286">
+        <v>10</v>
+      </c>
+      <c r="E286" t="s">
+        <v>63</v>
+      </c>
+      <c r="F286" t="s">
         <v>252</v>
-      </c>
-      <c r="E286">
-        <v>10</v>
-      </c>
-      <c r="F286" t="s">
-        <v>63</v>
       </c>
       <c r="G286">
         <v>500000</v>
@@ -14513,14 +14513,14 @@
       <c r="C287">
         <v>10</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287">
+        <v>2</v>
+      </c>
+      <c r="E287" t="s">
+        <v>21</v>
+      </c>
+      <c r="F287" t="s">
         <v>253</v>
-      </c>
-      <c r="E287">
-        <v>2</v>
-      </c>
-      <c r="F287" t="s">
-        <v>21</v>
       </c>
       <c r="G287">
         <v>400000</v>
@@ -14548,14 +14548,14 @@
       <c r="C288">
         <v>10</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288">
+        <v>70</v>
+      </c>
+      <c r="E288" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" t="s">
         <v>254</v>
-      </c>
-      <c r="E288">
-        <v>70</v>
-      </c>
-      <c r="F288" t="s">
-        <v>13</v>
       </c>
       <c r="G288">
         <v>500000</v>
@@ -14586,14 +14586,14 @@
       <c r="C289">
         <v>10</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289">
+        <v>93</v>
+      </c>
+      <c r="E289" t="s">
+        <v>8</v>
+      </c>
+      <c r="F289" t="s">
         <v>249</v>
-      </c>
-      <c r="E289">
-        <v>93</v>
-      </c>
-      <c r="F289" t="s">
-        <v>8</v>
       </c>
       <c r="G289">
         <v>500000</v>
@@ -14624,14 +14624,14 @@
       <c r="C290">
         <v>10</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290">
+        <v>94</v>
+      </c>
+      <c r="E290" t="s">
+        <v>64</v>
+      </c>
+      <c r="F290" t="s">
         <v>252</v>
-      </c>
-      <c r="E290">
-        <v>94</v>
-      </c>
-      <c r="F290" t="s">
-        <v>64</v>
       </c>
       <c r="G290">
         <v>700000</v>
@@ -14662,14 +14662,14 @@
       <c r="C291">
         <v>10</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291">
+        <v>93</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" t="s">
         <v>249</v>
-      </c>
-      <c r="E291">
-        <v>93</v>
-      </c>
-      <c r="F291" t="s">
-        <v>8</v>
       </c>
       <c r="G291">
         <v>600000</v>
@@ -14700,14 +14700,14 @@
       <c r="C292">
         <v>10</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292">
+        <v>89</v>
+      </c>
+      <c r="E292" t="s">
+        <v>65</v>
+      </c>
+      <c r="F292" s="2">
         <v>45378</v>
-      </c>
-      <c r="E292">
-        <v>89</v>
-      </c>
-      <c r="F292" t="s">
-        <v>65</v>
       </c>
       <c r="G292">
         <v>600000</v>
@@ -14738,14 +14738,14 @@
       <c r="C293">
         <v>10</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293">
+        <v>96</v>
+      </c>
+      <c r="E293" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293" t="s">
         <v>247</v>
-      </c>
-      <c r="E293">
-        <v>96</v>
-      </c>
-      <c r="F293" t="s">
-        <v>12</v>
       </c>
       <c r="G293">
         <v>400000</v>
@@ -14776,14 +14776,14 @@
       <c r="C294">
         <v>10</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294">
+        <v>55</v>
+      </c>
+      <c r="E294" t="s">
+        <v>16</v>
+      </c>
+      <c r="F294" t="s">
         <v>255</v>
-      </c>
-      <c r="E294">
-        <v>55</v>
-      </c>
-      <c r="F294" t="s">
-        <v>16</v>
       </c>
       <c r="G294">
         <v>400000</v>
@@ -14814,14 +14814,14 @@
       <c r="C295">
         <v>10</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295">
+        <v>33</v>
+      </c>
+      <c r="E295" t="s">
+        <v>45</v>
+      </c>
+      <c r="F295" t="s">
         <v>247</v>
-      </c>
-      <c r="E295">
-        <v>33</v>
-      </c>
-      <c r="F295" t="s">
-        <v>45</v>
       </c>
       <c r="G295">
         <v>600000</v>
@@ -14852,14 +14852,14 @@
       <c r="C296">
         <v>10</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296">
+        <v>93</v>
+      </c>
+      <c r="E296" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296" t="s">
         <v>251</v>
-      </c>
-      <c r="E296">
-        <v>93</v>
-      </c>
-      <c r="F296" t="s">
-        <v>8</v>
       </c>
       <c r="G296">
         <v>600000</v>
@@ -14890,14 +14890,14 @@
       <c r="C297">
         <v>10</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297">
+        <v>51</v>
+      </c>
+      <c r="E297" t="s">
+        <v>19</v>
+      </c>
+      <c r="F297" t="s">
         <v>256</v>
-      </c>
-      <c r="E297">
-        <v>51</v>
-      </c>
-      <c r="F297" t="s">
-        <v>19</v>
       </c>
       <c r="G297">
         <v>600000</v>
@@ -14928,14 +14928,14 @@
       <c r="C298">
         <v>10</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298">
+        <v>94</v>
+      </c>
+      <c r="E298" t="s">
+        <v>64</v>
+      </c>
+      <c r="F298" t="s">
         <v>249</v>
-      </c>
-      <c r="E298">
-        <v>94</v>
-      </c>
-      <c r="F298" t="s">
-        <v>64</v>
       </c>
       <c r="G298">
         <v>500000</v>
@@ -14963,14 +14963,14 @@
       <c r="C299">
         <v>11</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299">
+        <v>18</v>
+      </c>
+      <c r="E299" t="s">
+        <v>20</v>
+      </c>
+      <c r="F299" t="s">
         <v>257</v>
-      </c>
-      <c r="E299">
-        <v>18</v>
-      </c>
-      <c r="F299" t="s">
-        <v>20</v>
       </c>
       <c r="G299">
         <v>200000</v>
@@ -15001,14 +15001,14 @@
       <c r="C300">
         <v>11</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300">
+        <v>92</v>
+      </c>
+      <c r="E300" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" t="s">
         <v>258</v>
-      </c>
-      <c r="E300">
-        <v>92</v>
-      </c>
-      <c r="F300" t="s">
-        <v>11</v>
       </c>
       <c r="G300">
         <v>400000</v>
@@ -15036,14 +15036,14 @@
       <c r="C301">
         <v>11</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301">
+        <v>20</v>
+      </c>
+      <c r="E301" t="s">
+        <v>66</v>
+      </c>
+      <c r="F301" t="s">
         <v>259</v>
-      </c>
-      <c r="E301">
-        <v>20</v>
-      </c>
-      <c r="F301" t="s">
-        <v>66</v>
       </c>
       <c r="G301">
         <v>600000</v>
@@ -15074,14 +15074,14 @@
       <c r="C302">
         <v>11</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302">
+        <v>23</v>
+      </c>
+      <c r="E302" t="s">
+        <v>67</v>
+      </c>
+      <c r="F302" t="s">
         <v>260</v>
-      </c>
-      <c r="E302">
-        <v>23</v>
-      </c>
-      <c r="F302" t="s">
-        <v>67</v>
       </c>
       <c r="G302">
         <v>500000</v>
@@ -15112,14 +15112,14 @@
       <c r="C303">
         <v>11</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303">
+        <v>53</v>
+      </c>
+      <c r="E303" t="s">
+        <v>5</v>
+      </c>
+      <c r="F303" t="s">
         <v>261</v>
-      </c>
-      <c r="E303">
-        <v>53</v>
-      </c>
-      <c r="F303" t="s">
-        <v>5</v>
       </c>
       <c r="G303">
         <v>700000</v>
@@ -15150,14 +15150,14 @@
       <c r="C304">
         <v>11</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304">
+        <v>55</v>
+      </c>
+      <c r="E304" t="s">
+        <v>16</v>
+      </c>
+      <c r="F304" t="s">
         <v>262</v>
-      </c>
-      <c r="E304">
-        <v>55</v>
-      </c>
-      <c r="F304" t="s">
-        <v>16</v>
       </c>
       <c r="G304">
         <v>375000</v>
@@ -15188,14 +15188,14 @@
       <c r="C305">
         <v>11</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305">
+        <v>6</v>
+      </c>
+      <c r="E305" t="s">
+        <v>32</v>
+      </c>
+      <c r="F305" t="s">
         <v>263</v>
-      </c>
-      <c r="E305">
-        <v>6</v>
-      </c>
-      <c r="F305" t="s">
-        <v>32</v>
       </c>
       <c r="G305">
         <v>700000</v>
@@ -15226,14 +15226,14 @@
       <c r="C306">
         <v>11</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306">
+        <v>82</v>
+      </c>
+      <c r="E306" t="s">
+        <v>68</v>
+      </c>
+      <c r="F306" t="s">
         <v>264</v>
-      </c>
-      <c r="E306">
-        <v>82</v>
-      </c>
-      <c r="F306" t="s">
-        <v>68</v>
       </c>
       <c r="G306">
         <v>400000</v>
@@ -15264,14 +15264,14 @@
       <c r="C307">
         <v>11</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307">
+        <v>13</v>
+      </c>
+      <c r="E307" t="s">
+        <v>7</v>
+      </c>
+      <c r="F307" t="s">
         <v>262</v>
-      </c>
-      <c r="E307">
-        <v>13</v>
-      </c>
-      <c r="F307" t="s">
-        <v>7</v>
       </c>
       <c r="G307">
         <v>600000</v>
@@ -15302,14 +15302,14 @@
       <c r="C308">
         <v>11</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308">
+        <v>100</v>
+      </c>
+      <c r="E308" t="s">
+        <v>25</v>
+      </c>
+      <c r="F308" t="s">
         <v>265</v>
-      </c>
-      <c r="E308">
-        <v>100</v>
-      </c>
-      <c r="F308" t="s">
-        <v>25</v>
       </c>
       <c r="G308">
         <v>450000</v>
@@ -15340,14 +15340,14 @@
       <c r="C309">
         <v>11</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309">
+        <v>35</v>
+      </c>
+      <c r="E309" t="s">
+        <v>41</v>
+      </c>
+      <c r="F309" t="s">
         <v>263</v>
-      </c>
-      <c r="E309">
-        <v>35</v>
-      </c>
-      <c r="F309" t="s">
-        <v>41</v>
       </c>
       <c r="G309">
         <v>600000</v>
@@ -15378,14 +15378,14 @@
       <c r="C310">
         <v>11</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310">
+        <v>92</v>
+      </c>
+      <c r="E310" t="s">
+        <v>11</v>
+      </c>
+      <c r="F310" t="s">
         <v>266</v>
-      </c>
-      <c r="E310">
-        <v>92</v>
-      </c>
-      <c r="F310" t="s">
-        <v>11</v>
       </c>
       <c r="G310">
         <v>700000</v>
@@ -15416,14 +15416,14 @@
       <c r="C311">
         <v>11</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311">
+        <v>80</v>
+      </c>
+      <c r="E311" t="s">
+        <v>18</v>
+      </c>
+      <c r="F311" t="s">
         <v>267</v>
-      </c>
-      <c r="E311">
-        <v>80</v>
-      </c>
-      <c r="F311" t="s">
-        <v>18</v>
       </c>
       <c r="G311">
         <v>400000</v>
@@ -15454,14 +15454,14 @@
       <c r="C312">
         <v>11</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312">
+        <v>76</v>
+      </c>
+      <c r="E312" t="s">
+        <v>42</v>
+      </c>
+      <c r="F312" t="s">
         <v>268</v>
-      </c>
-      <c r="E312">
-        <v>76</v>
-      </c>
-      <c r="F312" t="s">
-        <v>42</v>
       </c>
       <c r="G312">
         <v>600000</v>
@@ -15492,14 +15492,14 @@
       <c r="C313">
         <v>11</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313">
+        <v>7</v>
+      </c>
+      <c r="E313" t="s">
+        <v>38</v>
+      </c>
+      <c r="F313" t="s">
         <v>267</v>
-      </c>
-      <c r="E313">
-        <v>7</v>
-      </c>
-      <c r="F313" t="s">
-        <v>38</v>
       </c>
       <c r="G313">
         <v>400000</v>
@@ -15530,14 +15530,14 @@
       <c r="C314">
         <v>11</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314">
+        <v>42</v>
+      </c>
+      <c r="E314" t="s">
+        <v>69</v>
+      </c>
+      <c r="F314" t="s">
         <v>269</v>
-      </c>
-      <c r="E314">
-        <v>42</v>
-      </c>
-      <c r="F314" t="s">
-        <v>69</v>
       </c>
       <c r="G314">
         <v>600000</v>
@@ -15568,14 +15568,14 @@
       <c r="C315">
         <v>11</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315">
+        <v>57</v>
+      </c>
+      <c r="E315" t="s">
+        <v>37</v>
+      </c>
+      <c r="F315" t="s">
         <v>270</v>
-      </c>
-      <c r="E315">
-        <v>57</v>
-      </c>
-      <c r="F315" t="s">
-        <v>37</v>
       </c>
       <c r="G315">
         <v>400000</v>
@@ -15606,14 +15606,14 @@
       <c r="C316">
         <v>12</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316">
+        <v>51</v>
+      </c>
+      <c r="E316" t="s">
+        <v>19</v>
+      </c>
+      <c r="F316" t="s">
         <v>271</v>
-      </c>
-      <c r="E316">
-        <v>51</v>
-      </c>
-      <c r="F316" t="s">
-        <v>19</v>
       </c>
       <c r="G316">
         <v>300000</v>
@@ -15644,14 +15644,14 @@
       <c r="C317">
         <v>12</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317">
+        <v>93</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317" t="s">
         <v>271</v>
-      </c>
-      <c r="E317">
-        <v>93</v>
-      </c>
-      <c r="F317" t="s">
-        <v>8</v>
       </c>
       <c r="G317">
         <v>400000</v>
@@ -15682,14 +15682,14 @@
       <c r="C318">
         <v>12</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318">
+        <v>82</v>
+      </c>
+      <c r="E318" t="s">
+        <v>68</v>
+      </c>
+      <c r="F318" t="s">
         <v>271</v>
-      </c>
-      <c r="E318">
-        <v>82</v>
-      </c>
-      <c r="F318" t="s">
-        <v>68</v>
       </c>
       <c r="G318">
         <v>700000</v>
@@ -15720,14 +15720,14 @@
       <c r="C319">
         <v>12</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319">
+        <v>38</v>
+      </c>
+      <c r="E319" t="s">
+        <v>23</v>
+      </c>
+      <c r="F319" t="s">
         <v>271</v>
-      </c>
-      <c r="E319">
-        <v>38</v>
-      </c>
-      <c r="F319" t="s">
-        <v>23</v>
       </c>
       <c r="G319">
         <v>700000</v>
@@ -15758,14 +15758,14 @@
       <c r="C320">
         <v>12</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320">
+        <v>13</v>
+      </c>
+      <c r="E320" t="s">
+        <v>7</v>
+      </c>
+      <c r="F320" t="s">
         <v>272</v>
-      </c>
-      <c r="E320">
-        <v>13</v>
-      </c>
-      <c r="F320" t="s">
-        <v>7</v>
       </c>
       <c r="G320">
         <v>500000</v>
@@ -15796,14 +15796,14 @@
       <c r="C321">
         <v>12</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321" t="s">
+        <v>60</v>
+      </c>
+      <c r="F321" t="s">
         <v>272</v>
-      </c>
-      <c r="E321">
-        <v>1</v>
-      </c>
-      <c r="F321" t="s">
-        <v>60</v>
       </c>
       <c r="G321">
         <v>600000</v>
@@ -15834,14 +15834,14 @@
       <c r="C322">
         <v>12</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322">
+        <v>71</v>
+      </c>
+      <c r="E322" t="s">
+        <v>17</v>
+      </c>
+      <c r="F322" t="s">
         <v>273</v>
-      </c>
-      <c r="E322">
-        <v>71</v>
-      </c>
-      <c r="F322" t="s">
-        <v>17</v>
       </c>
       <c r="G322">
         <v>600000</v>
@@ -15872,14 +15872,14 @@
       <c r="C323">
         <v>12</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323">
+        <v>2</v>
+      </c>
+      <c r="E323" t="s">
+        <v>21</v>
+      </c>
+      <c r="F323" t="s">
         <v>274</v>
-      </c>
-      <c r="E323">
-        <v>2</v>
-      </c>
-      <c r="F323" t="s">
-        <v>21</v>
       </c>
       <c r="G323">
         <v>700000</v>
@@ -15910,14 +15910,14 @@
       <c r="C324">
         <v>12</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324">
+        <v>2</v>
+      </c>
+      <c r="E324" t="s">
+        <v>21</v>
+      </c>
+      <c r="F324" t="s">
         <v>272</v>
-      </c>
-      <c r="E324">
-        <v>2</v>
-      </c>
-      <c r="F324" t="s">
-        <v>21</v>
       </c>
       <c r="G324">
         <v>500000</v>
@@ -15948,14 +15948,14 @@
       <c r="C325">
         <v>12</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325">
+        <v>93</v>
+      </c>
+      <c r="E325" t="s">
+        <v>8</v>
+      </c>
+      <c r="F325" t="s">
         <v>275</v>
-      </c>
-      <c r="E325">
-        <v>93</v>
-      </c>
-      <c r="F325" t="s">
-        <v>8</v>
       </c>
       <c r="G325">
         <v>500000</v>
@@ -15986,14 +15986,14 @@
       <c r="C326">
         <v>12</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326">
+        <v>88</v>
+      </c>
+      <c r="E326" t="s">
+        <v>36</v>
+      </c>
+      <c r="F326" t="s">
         <v>274</v>
-      </c>
-      <c r="E326">
-        <v>88</v>
-      </c>
-      <c r="F326" t="s">
-        <v>36</v>
       </c>
       <c r="G326">
         <v>400000</v>
@@ -16025,13 +16025,13 @@
         <v>12</v>
       </c>
       <c r="D327">
+        <v>18</v>
+      </c>
+      <c r="E327" t="s">
+        <v>20</v>
+      </c>
+      <c r="F327">
         <v>52</v>
-      </c>
-      <c r="E327">
-        <v>18</v>
-      </c>
-      <c r="F327" t="s">
-        <v>20</v>
       </c>
       <c r="G327">
         <v>500000</v>
@@ -16054,13 +16054,13 @@
         <v>12</v>
       </c>
       <c r="D328">
+        <v>4</v>
+      </c>
+      <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328">
         <v>52</v>
-      </c>
-      <c r="E328">
-        <v>4</v>
-      </c>
-      <c r="F328" t="s">
-        <v>10</v>
       </c>
       <c r="G328">
         <v>700000</v>
@@ -16082,14 +16082,14 @@
       <c r="C329">
         <v>12</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329">
+        <v>92</v>
+      </c>
+      <c r="E329" t="s">
+        <v>11</v>
+      </c>
+      <c r="F329" t="s">
         <v>276</v>
-      </c>
-      <c r="E329">
-        <v>92</v>
-      </c>
-      <c r="F329" t="s">
-        <v>11</v>
       </c>
       <c r="G329">
         <v>600000</v>
@@ -16120,14 +16120,14 @@
       <c r="C330">
         <v>12</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330">
+        <v>77</v>
+      </c>
+      <c r="E330" t="s">
+        <v>52</v>
+      </c>
+      <c r="F330" t="s">
         <v>277</v>
-      </c>
-      <c r="E330">
-        <v>77</v>
-      </c>
-      <c r="F330" t="s">
-        <v>52</v>
       </c>
       <c r="G330">
         <v>500000</v>
@@ -16158,14 +16158,14 @@
       <c r="C331">
         <v>12</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331">
+        <v>74</v>
+      </c>
+      <c r="E331" t="s">
+        <v>24</v>
+      </c>
+      <c r="F331" t="s">
         <v>278</v>
-      </c>
-      <c r="E331">
-        <v>74</v>
-      </c>
-      <c r="F331" t="s">
-        <v>24</v>
       </c>
       <c r="G331">
         <v>600000</v>
@@ -16196,14 +16196,14 @@
       <c r="C332">
         <v>12</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332">
+        <v>100</v>
+      </c>
+      <c r="E332" t="s">
+        <v>25</v>
+      </c>
+      <c r="F332" t="s">
         <v>278</v>
-      </c>
-      <c r="E332">
-        <v>100</v>
-      </c>
-      <c r="F332" t="s">
-        <v>25</v>
       </c>
       <c r="G332">
         <v>500000</v>
@@ -16234,14 +16234,14 @@
       <c r="C333">
         <v>12</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333">
+        <v>71</v>
+      </c>
+      <c r="E333" t="s">
+        <v>17</v>
+      </c>
+      <c r="F333" t="s">
         <v>279</v>
-      </c>
-      <c r="E333">
-        <v>71</v>
-      </c>
-      <c r="F333" t="s">
-        <v>17</v>
       </c>
       <c r="G333">
         <v>600000</v>
@@ -16272,14 +16272,14 @@
       <c r="C334">
         <v>12</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334">
+        <v>63</v>
+      </c>
+      <c r="E334" t="s">
+        <v>70</v>
+      </c>
+      <c r="F334" t="s">
         <v>280</v>
-      </c>
-      <c r="E334">
-        <v>63</v>
-      </c>
-      <c r="F334" t="s">
-        <v>70</v>
       </c>
       <c r="G334">
         <v>600000</v>
@@ -16310,14 +16310,14 @@
       <c r="C335">
         <v>12</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335">
+        <v>100</v>
+      </c>
+      <c r="E335" t="s">
+        <v>25</v>
+      </c>
+      <c r="F335" t="s">
         <v>281</v>
-      </c>
-      <c r="E335">
-        <v>100</v>
-      </c>
-      <c r="F335" t="s">
-        <v>25</v>
       </c>
       <c r="G335">
         <v>600000</v>
@@ -16348,14 +16348,14 @@
       <c r="C336">
         <v>13</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336">
+        <v>18</v>
+      </c>
+      <c r="E336" t="s">
+        <v>20</v>
+      </c>
+      <c r="F336" t="s">
         <v>282</v>
-      </c>
-      <c r="E336">
-        <v>18</v>
-      </c>
-      <c r="F336" t="s">
-        <v>20</v>
       </c>
       <c r="G336">
         <v>225000</v>
@@ -16386,14 +16386,14 @@
       <c r="C337">
         <v>13</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337">
+        <v>73</v>
+      </c>
+      <c r="E337" t="s">
+        <v>40</v>
+      </c>
+      <c r="F337" t="s">
         <v>283</v>
-      </c>
-      <c r="E337">
-        <v>73</v>
-      </c>
-      <c r="F337" t="s">
-        <v>40</v>
       </c>
       <c r="G337">
         <v>375000</v>
@@ -16424,14 +16424,14 @@
       <c r="C338">
         <v>13</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338">
+        <v>2</v>
+      </c>
+      <c r="E338" t="s">
+        <v>21</v>
+      </c>
+      <c r="F338" t="s">
         <v>284</v>
-      </c>
-      <c r="E338">
-        <v>2</v>
-      </c>
-      <c r="F338" t="s">
-        <v>21</v>
       </c>
       <c r="G338">
         <v>375000</v>
@@ -16462,14 +16462,14 @@
       <c r="C339">
         <v>13</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339">
+        <v>76</v>
+      </c>
+      <c r="E339" t="s">
+        <v>42</v>
+      </c>
+      <c r="F339" t="s">
         <v>285</v>
-      </c>
-      <c r="E339">
-        <v>76</v>
-      </c>
-      <c r="F339" t="s">
-        <v>42</v>
       </c>
       <c r="G339">
         <v>400000</v>
@@ -16500,14 +16500,14 @@
       <c r="C340">
         <v>13</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340">
+        <v>20</v>
+      </c>
+      <c r="E340" t="s">
+        <v>66</v>
+      </c>
+      <c r="F340" t="s">
         <v>286</v>
-      </c>
-      <c r="E340">
-        <v>20</v>
-      </c>
-      <c r="F340" t="s">
-        <v>66</v>
       </c>
       <c r="G340">
         <v>400000</v>
@@ -16538,14 +16538,14 @@
       <c r="C341">
         <v>13</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341">
+        <v>100</v>
+      </c>
+      <c r="E341" t="s">
+        <v>25</v>
+      </c>
+      <c r="F341" t="s">
         <v>287</v>
-      </c>
-      <c r="E341">
-        <v>100</v>
-      </c>
-      <c r="F341" t="s">
-        <v>25</v>
       </c>
       <c r="G341">
         <v>400000</v>
@@ -16576,14 +16576,14 @@
       <c r="C342">
         <v>13</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342">
+        <v>100</v>
+      </c>
+      <c r="E342" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342" t="s">
         <v>288</v>
-      </c>
-      <c r="E342">
-        <v>100</v>
-      </c>
-      <c r="F342" t="s">
-        <v>25</v>
       </c>
       <c r="G342">
         <v>300000</v>
@@ -16614,14 +16614,14 @@
       <c r="C343">
         <v>13</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343">
+        <v>22</v>
+      </c>
+      <c r="E343" t="s">
+        <v>71</v>
+      </c>
+      <c r="F343" t="s">
         <v>289</v>
-      </c>
-      <c r="E343">
-        <v>22</v>
-      </c>
-      <c r="F343" t="s">
-        <v>71</v>
       </c>
       <c r="G343">
         <v>375000</v>
@@ -16652,14 +16652,14 @@
       <c r="C344">
         <v>13</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344">
+        <v>92</v>
+      </c>
+      <c r="E344" t="s">
+        <v>11</v>
+      </c>
+      <c r="F344" t="s">
         <v>290</v>
-      </c>
-      <c r="E344">
-        <v>92</v>
-      </c>
-      <c r="F344" t="s">
-        <v>11</v>
       </c>
       <c r="G344">
         <v>300000</v>
@@ -16690,14 +16690,14 @@
       <c r="C345">
         <v>13</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345">
+        <v>45</v>
+      </c>
+      <c r="E345" t="s">
+        <v>57</v>
+      </c>
+      <c r="F345" t="s">
         <v>291</v>
-      </c>
-      <c r="E345">
-        <v>45</v>
-      </c>
-      <c r="F345" t="s">
-        <v>57</v>
       </c>
       <c r="G345">
         <v>500000</v>
@@ -16728,14 +16728,14 @@
       <c r="C346">
         <v>13</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346">
+        <v>93</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
+      </c>
+      <c r="F346" t="s">
         <v>292</v>
-      </c>
-      <c r="E346">
-        <v>93</v>
-      </c>
-      <c r="F346" t="s">
-        <v>8</v>
       </c>
       <c r="G346">
         <v>450000</v>
@@ -16766,14 +16766,14 @@
       <c r="C347">
         <v>13</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347">
+        <v>97</v>
+      </c>
+      <c r="E347" t="s">
+        <v>27</v>
+      </c>
+      <c r="F347" t="s">
         <v>293</v>
-      </c>
-      <c r="E347">
-        <v>97</v>
-      </c>
-      <c r="F347" t="s">
-        <v>27</v>
       </c>
       <c r="G347">
         <v>375000</v>
@@ -16804,14 +16804,14 @@
       <c r="C348">
         <v>13</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348">
+        <v>9</v>
+      </c>
+      <c r="E348" t="s">
+        <v>72</v>
+      </c>
+      <c r="F348" t="s">
         <v>294</v>
-      </c>
-      <c r="E348">
-        <v>9</v>
-      </c>
-      <c r="F348" t="s">
-        <v>72</v>
       </c>
       <c r="G348">
         <v>400000</v>
@@ -16842,14 +16842,14 @@
       <c r="C349">
         <v>13</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349">
+        <v>76</v>
+      </c>
+      <c r="E349" t="s">
+        <v>42</v>
+      </c>
+      <c r="F349" t="s">
         <v>295</v>
-      </c>
-      <c r="E349">
-        <v>76</v>
-      </c>
-      <c r="F349" t="s">
-        <v>42</v>
       </c>
       <c r="G349">
         <v>450000</v>
@@ -16880,14 +16880,14 @@
       <c r="C350">
         <v>13</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350">
+        <v>93</v>
+      </c>
+      <c r="E350" t="s">
+        <v>8</v>
+      </c>
+      <c r="F350" t="s">
         <v>296</v>
-      </c>
-      <c r="E350">
-        <v>93</v>
-      </c>
-      <c r="F350" t="s">
-        <v>8</v>
       </c>
       <c r="G350">
         <v>400000</v>
@@ -16918,14 +16918,14 @@
       <c r="C351">
         <v>13</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351">
+        <v>55</v>
+      </c>
+      <c r="E351" t="s">
+        <v>16</v>
+      </c>
+      <c r="F351" t="s">
         <v>297</v>
-      </c>
-      <c r="E351">
-        <v>55</v>
-      </c>
-      <c r="F351" t="s">
-        <v>16</v>
       </c>
       <c r="G351">
         <v>400000</v>
@@ -16956,14 +16956,14 @@
       <c r="C352">
         <v>13</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352">
+        <v>2</v>
+      </c>
+      <c r="E352" t="s">
+        <v>21</v>
+      </c>
+      <c r="F352" t="s">
         <v>298</v>
-      </c>
-      <c r="E352">
-        <v>2</v>
-      </c>
-      <c r="F352" t="s">
-        <v>21</v>
       </c>
       <c r="G352">
         <v>400000</v>
@@ -16994,14 +16994,14 @@
       <c r="C353">
         <v>13</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353">
+        <v>100</v>
+      </c>
+      <c r="E353" t="s">
+        <v>25</v>
+      </c>
+      <c r="F353" t="s">
         <v>299</v>
-      </c>
-      <c r="E353">
-        <v>100</v>
-      </c>
-      <c r="F353" t="s">
-        <v>25</v>
       </c>
       <c r="G353">
         <v>700000</v>
@@ -17032,14 +17032,14 @@
       <c r="C354">
         <v>13</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354">
+        <v>93</v>
+      </c>
+      <c r="E354" t="s">
+        <v>8</v>
+      </c>
+      <c r="F354" t="s">
         <v>300</v>
-      </c>
-      <c r="E354">
-        <v>93</v>
-      </c>
-      <c r="F354" t="s">
-        <v>8</v>
       </c>
       <c r="G354">
         <v>450000</v>
@@ -17070,14 +17070,14 @@
       <c r="C355">
         <v>13</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355">
+        <v>57</v>
+      </c>
+      <c r="E355" t="s">
+        <v>37</v>
+      </c>
+      <c r="F355" t="s">
         <v>301</v>
-      </c>
-      <c r="E355">
-        <v>57</v>
-      </c>
-      <c r="F355" t="s">
-        <v>37</v>
       </c>
       <c r="G355">
         <v>400000</v>
@@ -17108,14 +17108,14 @@
       <c r="C356">
         <v>14</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356">
+        <v>53</v>
+      </c>
+      <c r="E356" t="s">
+        <v>5</v>
+      </c>
+      <c r="F356" t="s">
         <v>143</v>
-      </c>
-      <c r="E356">
-        <v>53</v>
-      </c>
-      <c r="F356" t="s">
-        <v>5</v>
       </c>
       <c r="G356">
         <v>560000</v>
@@ -17146,14 +17146,14 @@
       <c r="C357">
         <v>14</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357">
+        <v>28</v>
+      </c>
+      <c r="E357" t="s">
+        <v>51</v>
+      </c>
+      <c r="F357" t="s">
         <v>143</v>
-      </c>
-      <c r="E357">
-        <v>28</v>
-      </c>
-      <c r="F357" t="s">
-        <v>51</v>
       </c>
       <c r="G357">
         <v>400000</v>
@@ -17184,14 +17184,14 @@
       <c r="C358">
         <v>14</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358">
+        <v>97</v>
+      </c>
+      <c r="E358" t="s">
+        <v>27</v>
+      </c>
+      <c r="F358" t="s">
         <v>143</v>
-      </c>
-      <c r="E358">
-        <v>97</v>
-      </c>
-      <c r="F358" t="s">
-        <v>27</v>
       </c>
       <c r="G358">
         <v>560000</v>
@@ -17222,14 +17222,14 @@
       <c r="C359">
         <v>14</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359">
+        <v>90</v>
+      </c>
+      <c r="E359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" t="s">
         <v>143</v>
-      </c>
-      <c r="E359">
-        <v>90</v>
-      </c>
-      <c r="F359" t="s">
-        <v>9</v>
       </c>
       <c r="G359">
         <v>320000</v>
@@ -17260,14 +17260,14 @@
       <c r="C360">
         <v>14</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360">
+        <v>90</v>
+      </c>
+      <c r="E360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" t="s">
         <v>143</v>
-      </c>
-      <c r="E360">
-        <v>90</v>
-      </c>
-      <c r="F360" t="s">
-        <v>9</v>
       </c>
       <c r="G360">
         <v>320000</v>
@@ -17298,14 +17298,14 @@
       <c r="C361">
         <v>14</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361">
+        <v>38</v>
+      </c>
+      <c r="E361" t="s">
+        <v>23</v>
+      </c>
+      <c r="F361" t="s">
         <v>143</v>
-      </c>
-      <c r="E361">
-        <v>38</v>
-      </c>
-      <c r="F361" t="s">
-        <v>23</v>
       </c>
       <c r="G361">
         <v>560000</v>
@@ -17336,14 +17336,14 @@
       <c r="C362">
         <v>14</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362">
+        <v>53</v>
+      </c>
+      <c r="E362" t="s">
+        <v>5</v>
+      </c>
+      <c r="F362" t="s">
         <v>302</v>
-      </c>
-      <c r="E362">
-        <v>53</v>
-      </c>
-      <c r="F362" t="s">
-        <v>5</v>
       </c>
       <c r="G362">
         <v>560000</v>
@@ -17374,14 +17374,14 @@
       <c r="C363">
         <v>14</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363">
+        <v>90</v>
+      </c>
+      <c r="E363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363" t="s">
         <v>302</v>
-      </c>
-      <c r="E363">
-        <v>90</v>
-      </c>
-      <c r="F363" t="s">
-        <v>9</v>
       </c>
       <c r="G363">
         <v>320000</v>
@@ -17412,14 +17412,14 @@
       <c r="C364">
         <v>14</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364">
+        <v>55</v>
+      </c>
+      <c r="E364" t="s">
+        <v>16</v>
+      </c>
+      <c r="F364" t="s">
         <v>303</v>
-      </c>
-      <c r="E364">
-        <v>55</v>
-      </c>
-      <c r="F364" t="s">
-        <v>16</v>
       </c>
       <c r="G364">
         <v>400000</v>
@@ -17450,14 +17450,14 @@
       <c r="C365">
         <v>14</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365">
+        <v>53</v>
+      </c>
+      <c r="E365" t="s">
+        <v>5</v>
+      </c>
+      <c r="F365" t="s">
         <v>303</v>
-      </c>
-      <c r="E365">
-        <v>53</v>
-      </c>
-      <c r="F365" t="s">
-        <v>5</v>
       </c>
       <c r="G365">
         <v>480000</v>
@@ -17488,14 +17488,14 @@
       <c r="C366">
         <v>14</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366">
+        <v>53</v>
+      </c>
+      <c r="E366" t="s">
+        <v>5</v>
+      </c>
+      <c r="F366" t="s">
         <v>304</v>
-      </c>
-      <c r="E366">
-        <v>53</v>
-      </c>
-      <c r="F366" t="s">
-        <v>5</v>
       </c>
       <c r="G366">
         <v>560000</v>
@@ -17526,14 +17526,14 @@
       <c r="C367">
         <v>14</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367">
+        <v>53</v>
+      </c>
+      <c r="E367" t="s">
+        <v>5</v>
+      </c>
+      <c r="F367" t="s">
         <v>305</v>
-      </c>
-      <c r="E367">
-        <v>53</v>
-      </c>
-      <c r="F367" t="s">
-        <v>5</v>
       </c>
       <c r="G367">
         <v>480000</v>
@@ -17564,14 +17564,14 @@
       <c r="C368">
         <v>14</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368">
+        <v>92</v>
+      </c>
+      <c r="E368" t="s">
+        <v>11</v>
+      </c>
+      <c r="F368" t="s">
         <v>305</v>
-      </c>
-      <c r="E368">
-        <v>92</v>
-      </c>
-      <c r="F368" t="s">
-        <v>11</v>
       </c>
       <c r="G368">
         <v>320000</v>
@@ -17602,14 +17602,14 @@
       <c r="C369">
         <v>14</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369">
+        <v>16</v>
+      </c>
+      <c r="E369" t="s">
+        <v>44</v>
+      </c>
+      <c r="F369" t="s">
         <v>305</v>
-      </c>
-      <c r="E369">
-        <v>16</v>
-      </c>
-      <c r="F369" t="s">
-        <v>44</v>
       </c>
       <c r="G369">
         <v>560000</v>
@@ -17640,14 +17640,14 @@
       <c r="C370">
         <v>14</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370">
+        <v>53</v>
+      </c>
+      <c r="E370" t="s">
+        <v>5</v>
+      </c>
+      <c r="F370" t="s">
         <v>306</v>
-      </c>
-      <c r="E370">
-        <v>53</v>
-      </c>
-      <c r="F370" t="s">
-        <v>5</v>
       </c>
       <c r="G370">
         <v>480000</v>
@@ -17678,14 +17678,14 @@
       <c r="C371">
         <v>14</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371">
+        <v>79</v>
+      </c>
+      <c r="E371" t="s">
+        <v>30</v>
+      </c>
+      <c r="F371" t="s">
         <v>302</v>
-      </c>
-      <c r="E371">
-        <v>79</v>
-      </c>
-      <c r="F371" t="s">
-        <v>30</v>
       </c>
       <c r="G371">
         <v>400000</v>
@@ -17716,14 +17716,14 @@
       <c r="C372">
         <v>14</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372">
+        <v>66</v>
+      </c>
+      <c r="E372" t="s">
+        <v>48</v>
+      </c>
+      <c r="F372" t="s">
         <v>307</v>
-      </c>
-      <c r="E372">
-        <v>66</v>
-      </c>
-      <c r="F372" t="s">
-        <v>48</v>
       </c>
       <c r="G372">
         <v>400000</v>
@@ -17748,14 +17748,14 @@
       <c r="C373">
         <v>14</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373">
+        <v>51</v>
+      </c>
+      <c r="E373" t="s">
+        <v>19</v>
+      </c>
+      <c r="F373" t="s">
         <v>308</v>
-      </c>
-      <c r="E373">
-        <v>51</v>
-      </c>
-      <c r="F373" t="s">
-        <v>19</v>
       </c>
       <c r="G373">
         <v>320000</v>
@@ -17786,14 +17786,14 @@
       <c r="C374">
         <v>14</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374">
+        <v>38</v>
+      </c>
+      <c r="E374" t="s">
+        <v>23</v>
+      </c>
+      <c r="F374" t="s">
         <v>306</v>
-      </c>
-      <c r="E374">
-        <v>38</v>
-      </c>
-      <c r="F374" t="s">
-        <v>23</v>
       </c>
       <c r="G374">
         <v>480000</v>
@@ -17824,14 +17824,14 @@
       <c r="C375">
         <v>14</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375">
+        <v>11</v>
+      </c>
+      <c r="E375" t="s">
+        <v>31</v>
+      </c>
+      <c r="F375" t="s">
         <v>309</v>
-      </c>
-      <c r="E375">
-        <v>11</v>
-      </c>
-      <c r="F375" t="s">
-        <v>31</v>
       </c>
       <c r="G375">
         <v>560000</v>
@@ -17862,14 +17862,14 @@
       <c r="C376">
         <v>14</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376">
+        <v>94</v>
+      </c>
+      <c r="E376" t="s">
+        <v>64</v>
+      </c>
+      <c r="F376" t="s">
         <v>143</v>
-      </c>
-      <c r="E376">
-        <v>94</v>
-      </c>
-      <c r="F376" t="s">
-        <v>64</v>
       </c>
       <c r="G376">
         <v>560000</v>
@@ -17900,14 +17900,14 @@
       <c r="C377">
         <v>14</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377">
+        <v>55</v>
+      </c>
+      <c r="E377" t="s">
+        <v>16</v>
+      </c>
+      <c r="F377" t="s">
         <v>307</v>
-      </c>
-      <c r="E377">
-        <v>55</v>
-      </c>
-      <c r="F377" t="s">
-        <v>16</v>
       </c>
       <c r="G377">
         <v>560000</v>
@@ -17935,14 +17935,14 @@
       <c r="C378">
         <v>14</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378">
+        <v>78</v>
+      </c>
+      <c r="E378" t="s">
+        <v>28</v>
+      </c>
+      <c r="F378" t="s">
         <v>310</v>
-      </c>
-      <c r="E378">
-        <v>78</v>
-      </c>
-      <c r="F378" t="s">
-        <v>28</v>
       </c>
       <c r="G378">
         <v>320000</v>
@@ -17973,14 +17973,14 @@
       <c r="C379">
         <v>15</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379">
+        <v>35</v>
+      </c>
+      <c r="E379" t="s">
+        <v>41</v>
+      </c>
+      <c r="F379" t="s">
         <v>311</v>
-      </c>
-      <c r="E379">
-        <v>35</v>
-      </c>
-      <c r="F379" t="s">
-        <v>41</v>
       </c>
       <c r="G379">
         <v>180000</v>
@@ -18011,14 +18011,14 @@
       <c r="C380">
         <v>15</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380">
+        <v>93</v>
+      </c>
+      <c r="E380" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" t="s">
         <v>312</v>
-      </c>
-      <c r="E380">
-        <v>93</v>
-      </c>
-      <c r="F380" t="s">
-        <v>8</v>
       </c>
       <c r="G380">
         <v>500000</v>
@@ -18049,14 +18049,14 @@
       <c r="C381">
         <v>15</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381">
+        <v>73</v>
+      </c>
+      <c r="E381" t="s">
+        <v>40</v>
+      </c>
+      <c r="F381" t="s">
         <v>313</v>
-      </c>
-      <c r="E381">
-        <v>73</v>
-      </c>
-      <c r="F381" t="s">
-        <v>40</v>
       </c>
       <c r="G381">
         <v>420000</v>
@@ -18087,14 +18087,14 @@
       <c r="C382">
         <v>15</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382">
+        <v>55</v>
+      </c>
+      <c r="E382" t="s">
+        <v>16</v>
+      </c>
+      <c r="F382" t="s">
         <v>311</v>
-      </c>
-      <c r="E382">
-        <v>55</v>
-      </c>
-      <c r="F382" t="s">
-        <v>16</v>
       </c>
       <c r="G382">
         <v>560000</v>
@@ -18125,14 +18125,14 @@
       <c r="C383">
         <v>15</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383">
+        <v>93</v>
+      </c>
+      <c r="E383" t="s">
+        <v>8</v>
+      </c>
+      <c r="F383" t="s">
         <v>314</v>
-      </c>
-      <c r="E383">
-        <v>93</v>
-      </c>
-      <c r="F383" t="s">
-        <v>8</v>
       </c>
       <c r="G383">
         <v>420000</v>
@@ -18163,14 +18163,14 @@
       <c r="C384">
         <v>15</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384">
+        <v>18</v>
+      </c>
+      <c r="E384" t="s">
+        <v>20</v>
+      </c>
+      <c r="F384" t="s">
         <v>313</v>
-      </c>
-      <c r="E384">
-        <v>18</v>
-      </c>
-      <c r="F384" t="s">
-        <v>20</v>
       </c>
       <c r="G384">
         <v>300000</v>
@@ -18201,14 +18201,14 @@
       <c r="C385">
         <v>15</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385">
+        <v>91</v>
+      </c>
+      <c r="E385" t="s">
+        <v>73</v>
+      </c>
+      <c r="F385" t="s">
         <v>311</v>
-      </c>
-      <c r="E385">
-        <v>91</v>
-      </c>
-      <c r="F385" t="s">
-        <v>73</v>
       </c>
       <c r="G385">
         <v>480000</v>
@@ -18239,14 +18239,14 @@
       <c r="C386">
         <v>15</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386">
+        <v>93</v>
+      </c>
+      <c r="E386" t="s">
+        <v>8</v>
+      </c>
+      <c r="F386" t="s">
         <v>312</v>
-      </c>
-      <c r="E386">
-        <v>93</v>
-      </c>
-      <c r="F386" t="s">
-        <v>8</v>
       </c>
       <c r="G386">
         <v>400000</v>
@@ -18277,14 +18277,14 @@
       <c r="C387">
         <v>15</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387">
+        <v>90</v>
+      </c>
+      <c r="E387" t="s">
+        <v>9</v>
+      </c>
+      <c r="F387" t="s">
         <v>315</v>
-      </c>
-      <c r="E387">
-        <v>90</v>
-      </c>
-      <c r="F387" t="s">
-        <v>9</v>
       </c>
       <c r="G387">
         <v>500000</v>
@@ -18315,14 +18315,14 @@
       <c r="C388">
         <v>15</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388">
+        <v>57</v>
+      </c>
+      <c r="E388" t="s">
+        <v>37</v>
+      </c>
+      <c r="F388" t="s">
         <v>316</v>
-      </c>
-      <c r="E388">
-        <v>57</v>
-      </c>
-      <c r="F388" t="s">
-        <v>37</v>
       </c>
       <c r="G388">
         <v>240000</v>
@@ -18353,14 +18353,14 @@
       <c r="C389">
         <v>15</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389">
+        <v>18</v>
+      </c>
+      <c r="E389" t="s">
+        <v>20</v>
+      </c>
+      <c r="F389" t="s">
         <v>317</v>
-      </c>
-      <c r="E389">
-        <v>18</v>
-      </c>
-      <c r="F389" t="s">
-        <v>20</v>
       </c>
       <c r="G389">
         <v>360000</v>
@@ -18391,14 +18391,14 @@
       <c r="C390">
         <v>15</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390">
+        <v>90</v>
+      </c>
+      <c r="E390" t="s">
+        <v>9</v>
+      </c>
+      <c r="F390" t="s">
         <v>311</v>
-      </c>
-      <c r="E390">
-        <v>90</v>
-      </c>
-      <c r="F390" t="s">
-        <v>9</v>
       </c>
       <c r="G390">
         <v>300000</v>
@@ -18429,14 +18429,14 @@
       <c r="C391">
         <v>15</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391" t="s">
+        <v>60</v>
+      </c>
+      <c r="F391" t="s">
         <v>313</v>
-      </c>
-      <c r="E391">
-        <v>1</v>
-      </c>
-      <c r="F391" t="s">
-        <v>60</v>
       </c>
       <c r="G391">
         <v>560000</v>
@@ -18467,14 +18467,14 @@
       <c r="C392">
         <v>15</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392">
+        <v>92</v>
+      </c>
+      <c r="E392" t="s">
+        <v>11</v>
+      </c>
+      <c r="F392" t="s">
         <v>312</v>
-      </c>
-      <c r="E392">
-        <v>92</v>
-      </c>
-      <c r="F392" t="s">
-        <v>11</v>
       </c>
       <c r="G392">
         <v>720000</v>
@@ -18505,14 +18505,14 @@
       <c r="C393">
         <v>15</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393">
+        <v>13</v>
+      </c>
+      <c r="E393" t="s">
+        <v>7</v>
+      </c>
+      <c r="F393" t="s">
         <v>318</v>
-      </c>
-      <c r="E393">
-        <v>13</v>
-      </c>
-      <c r="F393" t="s">
-        <v>7</v>
       </c>
       <c r="G393">
         <v>320000</v>
@@ -18543,14 +18543,14 @@
       <c r="C394">
         <v>15</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394">
+        <v>55</v>
+      </c>
+      <c r="E394" t="s">
+        <v>16</v>
+      </c>
+      <c r="F394" t="s">
         <v>319</v>
-      </c>
-      <c r="E394">
-        <v>55</v>
-      </c>
-      <c r="F394" t="s">
-        <v>16</v>
       </c>
       <c r="G394">
         <v>480000</v>
@@ -18572,14 +18572,14 @@
       <c r="C395">
         <v>15</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395">
+        <v>15</v>
+      </c>
+      <c r="E395" t="s">
+        <v>74</v>
+      </c>
+      <c r="F395" t="s">
         <v>320</v>
-      </c>
-      <c r="E395">
-        <v>15</v>
-      </c>
-      <c r="F395" t="s">
-        <v>74</v>
       </c>
       <c r="G395">
         <v>600000</v>
@@ -18610,14 +18610,14 @@
       <c r="C396">
         <v>15</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396">
+        <v>57</v>
+      </c>
+      <c r="E396" t="s">
+        <v>37</v>
+      </c>
+      <c r="F396" t="s">
         <v>321</v>
-      </c>
-      <c r="E396">
-        <v>57</v>
-      </c>
-      <c r="F396" t="s">
-        <v>37</v>
       </c>
       <c r="G396">
         <v>480000</v>
@@ -18648,14 +18648,14 @@
       <c r="C397">
         <v>15</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397">
+        <v>93</v>
+      </c>
+      <c r="E397" t="s">
+        <v>8</v>
+      </c>
+      <c r="F397" t="s">
         <v>322</v>
-      </c>
-      <c r="E397">
-        <v>93</v>
-      </c>
-      <c r="F397" t="s">
-        <v>8</v>
       </c>
       <c r="G397">
         <v>600000</v>
@@ -18686,14 +18686,14 @@
       <c r="C398">
         <v>15</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398">
+        <v>18</v>
+      </c>
+      <c r="E398" t="s">
+        <v>20</v>
+      </c>
+      <c r="F398" t="s">
         <v>323</v>
-      </c>
-      <c r="E398">
-        <v>18</v>
-      </c>
-      <c r="F398" t="s">
-        <v>20</v>
       </c>
       <c r="G398">
         <v>600000</v>
@@ -18724,14 +18724,14 @@
       <c r="C399">
         <v>15</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399">
+        <v>55</v>
+      </c>
+      <c r="E399" t="s">
+        <v>16</v>
+      </c>
+      <c r="F399" t="s">
         <v>324</v>
-      </c>
-      <c r="E399">
-        <v>55</v>
-      </c>
-      <c r="F399" t="s">
-        <v>16</v>
       </c>
       <c r="G399">
         <v>400000</v>
@@ -18762,14 +18762,14 @@
       <c r="C400">
         <v>15</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400">
+        <v>91</v>
+      </c>
+      <c r="E400" t="s">
+        <v>73</v>
+      </c>
+      <c r="F400" t="s">
         <v>325</v>
-      </c>
-      <c r="E400">
-        <v>91</v>
-      </c>
-      <c r="F400" t="s">
-        <v>73</v>
       </c>
       <c r="G400">
         <v>700000</v>
@@ -18800,14 +18800,14 @@
       <c r="C401">
         <v>15</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401">
+        <v>6</v>
+      </c>
+      <c r="E401" t="s">
+        <v>32</v>
+      </c>
+      <c r="F401" t="s">
         <v>326</v>
-      </c>
-      <c r="E401">
-        <v>6</v>
-      </c>
-      <c r="F401" t="s">
-        <v>32</v>
       </c>
       <c r="G401">
         <v>700000</v>
